--- a/data/hotels_by_city/Dallas/Dallas_shard_726.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_726.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="681">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1931 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r558859648-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>30141</t>
+  </si>
+  <si>
+    <t>273411</t>
+  </si>
+  <si>
+    <t>558859648</t>
+  </si>
+  <si>
+    <t>02/06/2018</t>
+  </si>
+  <si>
+    <t>Nothing like I thought</t>
+  </si>
+  <si>
+    <t>Only stayed one night, nothing like I thought, doesn't look as pictured, &amp; not to far but also not to close to the Galleria Mall as I thought it would be.  The rooms need to be remodeled. Need new carpet &amp; furniture in rooms  MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 9, 2018</t>
+  </si>
+  <si>
+    <t>Only stayed one night, nothing like I thought, doesn't look as pictured, &amp; not to far but also not to close to the Galleria Mall as I thought it would be.  The rooms need to be remodeled. Need new carpet &amp; furniture in rooms  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r555628788-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>555628788</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>ugh</t>
+  </si>
+  <si>
+    <t>The service was satisfactory and the continental breakfast was pretty good. Other than that I was pretty disappointed. The condition of the room was very bad. There were holes in the wall and dents in the door where it looks like someone had a fit. The quality of the cable was really bad. Based on those things I was concerned on my safety in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>super8addison1, other at Super 8 by the Galleria / North Dallas, responded to this reviewResponded January 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 23, 2018</t>
+  </si>
+  <si>
+    <t>The service was satisfactory and the continental breakfast was pretty good. Other than that I was pretty disappointed. The condition of the room was very bad. There were holes in the wall and dents in the door where it looks like someone had a fit. The quality of the cable was really bad. Based on those things I was concerned on my safety in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r555259358-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>555259358</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Good and Bad</t>
+  </si>
+  <si>
+    <t>I almost gave a one star but but I have to give credit for the friendly staff; there are situations beyond their control. The pluses - friendly staff, clean and comfortable bed.  Very good breakfast.The negatives- broken faucet in the bathroom shower which prevented the water from coming on.  The carpeting was gross.  I was afraid to walk barefoot.  There was a hole in the bathroom door  That looked like the door had been kicked in.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>super8addison1, other at Super 8 by the Galleria / North Dallas, responded to this reviewResponded January 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 29, 2018</t>
+  </si>
+  <si>
+    <t>I almost gave a one star but but I have to give credit for the friendly staff; there are situations beyond their control. The pluses - friendly staff, clean and comfortable bed.  Very good breakfast.The negatives- broken faucet in the bathroom shower which prevented the water from coming on.  The carpeting was gross.  I was afraid to walk barefoot.  There was a hole in the bathroom door  That looked like the door had been kicked in.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r546731501-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>546731501</t>
+  </si>
+  <si>
+    <t>12/11/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded December 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 14, 2017</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r542313646-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>542313646</t>
+  </si>
+  <si>
+    <t>11/20/2017</t>
+  </si>
+  <si>
+    <t>Lots of issues</t>
+  </si>
+  <si>
+    <t>Forgot wake up call on two days; breakfast area dirty; food not replaced before ending time; lhotel looks old; hot water in sink didn't workMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded November 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2017</t>
+  </si>
+  <si>
+    <t>Forgot wake up call on two days; breakfast area dirty; food not replaced before ending time; lhotel looks old; hot water in sink didn't workMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r539559002-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>539559002</t>
+  </si>
+  <si>
+    <t>11/08/2017</t>
+  </si>
+  <si>
+    <t>This Property Could be Great, but FAILS</t>
+  </si>
+  <si>
+    <t>To be honest, I think that most reviewers are a little harsher than myself; resulting in my occasional dismissal of reviews that seem to be exaggerated or when the reviewer seemed to have unrealistic expectations of the establishment.  So, when I saw that there were reviews that said things like “room serviced every-other-day at best” and then a response from management, I thought maybe it was just a bunch of complainers.
+I’m sorry, fellow reviewers.
+The person who checked me in was attentive and courteous and so the check-in process was fast. There was some lengthy explanation about whether I wanted the same card that would pay the bill to cover the deposit as well ($50) and another deposit of $1 for the key. Sure, use the same card. Strange, though, that you collect a key deposit. I know a couple of other hotels that are charging if the key isn’t returned, but congratulations on being the first to charge me up front.
+I rented an “upgraded” King suite with a sofa bed. I honestly wasn’t expecting extreme luxury as this was Super 8 and the price was under $70. But with words like “upgraded” and “suite” I expected a nicely appointed room and something that was upgraded. When I opened my door, I realized that it was likely updated back in the 1990’s, except for the television.  The carpet was well-worn and the seam near the bathroom had split....To be honest, I think that most reviewers are a little harsher than myself; resulting in my occasional dismissal of reviews that seem to be exaggerated or when the reviewer seemed to have unrealistic expectations of the establishment.  So, when I saw that there were reviews that said things like “room serviced every-other-day at best” and then a response from management, I thought maybe it was just a bunch of complainers.I’m sorry, fellow reviewers.The person who checked me in was attentive and courteous and so the check-in process was fast. There was some lengthy explanation about whether I wanted the same card that would pay the bill to cover the deposit as well ($50) and another deposit of $1 for the key. Sure, use the same card. Strange, though, that you collect a key deposit. I know a couple of other hotels that are charging if the key isn’t returned, but congratulations on being the first to charge me up front.I rented an “upgraded” King suite with a sofa bed. I honestly wasn’t expecting extreme luxury as this was Super 8 and the price was under $70. But with words like “upgraded” and “suite” I expected a nicely appointed room and something that was upgraded. When I opened my door, I realized that it was likely updated back in the 1990’s, except for the television.  The carpet was well-worn and the seam near the bathroom had split. The wallpaper border throughout the room was warped and peeling. The bathroom is old and worn and the tub stained and towel rack hanging half off the wall.The bathroom was missing the ‘floor towel’ and soap for the shower, not a great impression for housekeeping. As with other reviewers, after my first night, there was no service. The maid did come after the second night, and after the third I’m checking out so let’s hope for the best.In fairness, everything functioned and the bed was comfortable enough to get some sleep. The shower was a little difficult to operate as it pulls out toward you and I felt like I needed to pull hard enough to yank it out of the wall. The television worked and had ample channels and the wi-fi worked quite well for me. It seems the windows are new and the locks also seem modern and functioned well. The air conditioner worked well and was quiet.The breakfast is the typical Super 8 fare of waffles, a few pieces of fruit, a single yogurt on ice, and some toast. The room is very small but it was never busy.What really sealed my dislike of the hotel, though, is the fact that the $51 in deposits were not a hold, but an actual charge that will now need to be refunded. Additionally, the hotel sends a representative at check out to determine if you’ve damaged the room! I was also pretty disappointed that when I asked the front desk clerk if they knew of any fitness centers that guests could use (even if for a fee), he looked at me like I was from another planet and seemed like he didn’t really care. You would think this is information they would keep on hand.I expect to return for next year’s conference. I won’t be selecting this property, even though I liked the location. I felt safe and always could find a space right next to my room … after all, when the hotel is this bad and the reviews show it, there’s plenty of parking. Who knows? This Super 8 might be out of business in a year if they don’t start making changes.MoreShow less</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded November 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2017</t>
+  </si>
+  <si>
+    <t>To be honest, I think that most reviewers are a little harsher than myself; resulting in my occasional dismissal of reviews that seem to be exaggerated or when the reviewer seemed to have unrealistic expectations of the establishment.  So, when I saw that there were reviews that said things like “room serviced every-other-day at best” and then a response from management, I thought maybe it was just a bunch of complainers.
+I’m sorry, fellow reviewers.
+The person who checked me in was attentive and courteous and so the check-in process was fast. There was some lengthy explanation about whether I wanted the same card that would pay the bill to cover the deposit as well ($50) and another deposit of $1 for the key. Sure, use the same card. Strange, though, that you collect a key deposit. I know a couple of other hotels that are charging if the key isn’t returned, but congratulations on being the first to charge me up front.
+I rented an “upgraded” King suite with a sofa bed. I honestly wasn’t expecting extreme luxury as this was Super 8 and the price was under $70. But with words like “upgraded” and “suite” I expected a nicely appointed room and something that was upgraded. When I opened my door, I realized that it was likely updated back in the 1990’s, except for the television.  The carpet was well-worn and the seam near the bathroom had split....To be honest, I think that most reviewers are a little harsher than myself; resulting in my occasional dismissal of reviews that seem to be exaggerated or when the reviewer seemed to have unrealistic expectations of the establishment.  So, when I saw that there were reviews that said things like “room serviced every-other-day at best” and then a response from management, I thought maybe it was just a bunch of complainers.I’m sorry, fellow reviewers.The person who checked me in was attentive and courteous and so the check-in process was fast. There was some lengthy explanation about whether I wanted the same card that would pay the bill to cover the deposit as well ($50) and another deposit of $1 for the key. Sure, use the same card. Strange, though, that you collect a key deposit. I know a couple of other hotels that are charging if the key isn’t returned, but congratulations on being the first to charge me up front.I rented an “upgraded” King suite with a sofa bed. I honestly wasn’t expecting extreme luxury as this was Super 8 and the price was under $70. But with words like “upgraded” and “suite” I expected a nicely appointed room and something that was upgraded. When I opened my door, I realized that it was likely updated back in the 1990’s, except for the television.  The carpet was well-worn and the seam near the bathroom had split. The wallpaper border throughout the room was warped and peeling. The bathroom is old and worn and the tub stained and towel rack hanging half off the wall.The bathroom was missing the ‘floor towel’ and soap for the shower, not a great impression for housekeeping. As with other reviewers, after my first night, there was no service. The maid did come after the second night, and after the third I’m checking out so let’s hope for the best.In fairness, everything functioned and the bed was comfortable enough to get some sleep. The shower was a little difficult to operate as it pulls out toward you and I felt like I needed to pull hard enough to yank it out of the wall. The television worked and had ample channels and the wi-fi worked quite well for me. It seems the windows are new and the locks also seem modern and functioned well. The air conditioner worked well and was quiet.The breakfast is the typical Super 8 fare of waffles, a few pieces of fruit, a single yogurt on ice, and some toast. The room is very small but it was never busy.What really sealed my dislike of the hotel, though, is the fact that the $51 in deposits were not a hold, but an actual charge that will now need to be refunded. Additionally, the hotel sends a representative at check out to determine if you’ve damaged the room! I was also pretty disappointed that when I asked the front desk clerk if they knew of any fitness centers that guests could use (even if for a fee), he looked at me like I was from another planet and seemed like he didn’t really care. You would think this is information they would keep on hand.I expect to return for next year’s conference. I won’t be selecting this property, even though I liked the location. I felt safe and always could find a space right next to my room … after all, when the hotel is this bad and the reviews show it, there’s plenty of parking. Who knows? This Super 8 might be out of business in a year if they don’t start making changes.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r531535148-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>531535148</t>
+  </si>
+  <si>
+    <t>10/09/2017</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>This place had some serious issues. First the room was not nice. There was holes in the sink. Hair in the sink. Bathroom counter was broken and falling down. Tiles in bathroom were dirty. Only had 2 towels and washcloths. No pressure in shower. TV was full of static.  MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded October 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2017</t>
+  </si>
+  <si>
+    <t>This place had some serious issues. First the room was not nice. There was holes in the sink. Hair in the sink. Bathroom counter was broken and falling down. Tiles in bathroom were dirty. Only had 2 towels and washcloths. No pressure in shower. TV was full of static.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r527611978-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>527611978</t>
+  </si>
+  <si>
+    <t>09/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r519497059-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>519497059</t>
+  </si>
+  <si>
+    <t>08/30/2017</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r504926833-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>504926833</t>
+  </si>
+  <si>
+    <t>07/23/2017</t>
+  </si>
+  <si>
+    <t>Never again!</t>
+  </si>
+  <si>
+    <t>Never again will I stay here! Walked in and it smelled like weed! Turned ac on and noticed half a blunt sitting on the ac! Told mgmt and they just said they would go retrieve the blunt and spray the room with air freshener! Sat on the bed and noticed hair all over it as well as under the covers and pillow cases! Restroom had the same hair problem, on the floor and in the tub! Shower water did not get hot at all, it was barely warm! Horrible stay, will not ever return!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2017</t>
+  </si>
+  <si>
+    <t>Never again will I stay here! Walked in and it smelled like weed! Turned ac on and noticed half a blunt sitting on the ac! Told mgmt and they just said they would go retrieve the blunt and spray the room with air freshener! Sat on the bed and noticed hair all over it as well as under the covers and pillow cases! Restroom had the same hair problem, on the floor and in the tub! Shower water did not get hot at all, it was barely warm! Horrible stay, will not ever return!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r495173883-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>495173883</t>
+  </si>
+  <si>
+    <t>06/22/2017</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded June 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 26, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r492249807-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>492249807</t>
+  </si>
+  <si>
+    <t>06/11/2017</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r471436023-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>471436023</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r470867556-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>470867556</t>
+  </si>
+  <si>
+    <t>03/28/2017</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded March 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 29, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r470842295-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>470842295</t>
+  </si>
+  <si>
+    <t>Was very satisfied with my entire stay, from check in to...</t>
+  </si>
+  <si>
+    <t>Was very satisfied with my entire stay, from check in to leaving I had a total of 2 days was treated beyond what I would of thought, you could not beat the rates. Will definitely stay again, MoreShow less</t>
+  </si>
+  <si>
+    <t>Was very satisfied with my entire stay, from check in to leaving I had a total of 2 days was treated beyond what I would of thought, you could not beat the rates. Will definitely stay again, More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r469100505-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>469100505</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>hated it.</t>
+  </si>
+  <si>
+    <t>this place was not worth the money I spent on it.The room smelled funny, the shower would not work at first. The breakfast is a joke. when I got there they had One banana and it looked like someone had tried to open it and put it back. The bread they had for toast was old and hard. I will not stay at this property again. Actually I might not stay at another Super 8 property.MoreShow less</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded March 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2017</t>
+  </si>
+  <si>
+    <t>this place was not worth the money I spent on it.The room smelled funny, the shower would not work at first. The breakfast is a joke. when I got there they had One banana and it looked like someone had tried to open it and put it back. The bread they had for toast was old and hard. I will not stay at this property again. Actually I might not stay at another Super 8 property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r468433933-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>468433933</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Terrible room with worst customer services. .</t>
+  </si>
+  <si>
+    <t>My husband booked two rooms and checked in but never went inside. I was flying from out of state to visit him since he is in the army. We got to the room, and I never expected to experience with such amenities like this. The cover sheet had a cigarette burn hole, the carpet had an iron burn print, the bathroom door- someone punch it, one of the drawer had a broken piece with a missing handle. I took pictures of the room as proof since we didn't do anything to it. We didn't even stay in the room for more than 5 minutes, and packed our stuff and left. We got to the front desk and I told the front desk worker about the room and how we weren't going to stay but would like a refund. He refuse to give us a refund since he said they don't do refund and he is just a part time worker. I told him I work in the hospitality industry as well, and I know what to do when a guest isn't please and want to check out. He said since this is an individual own and operated, they have the right to not refund. All he could do was offer us a better room since they are still under renovation. Wtf??!! I work at one as well, and I never been so mad with the service provide and if you...My husband booked two rooms and checked in but never went inside. I was flying from out of state to visit him since he is in the army. We got to the room, and I never expected to experience with such amenities like this. The cover sheet had a cigarette burn hole, the carpet had an iron burn print, the bathroom door- someone punch it, one of the drawer had a broken piece with a missing handle. I took pictures of the room as proof since we didn't do anything to it. We didn't even stay in the room for more than 5 minutes, and packed our stuff and left. We got to the front desk and I told the front desk worker about the room and how we weren't going to stay but would like a refund. He refuse to give us a refund since he said they don't do refund and he is just a part time worker. I told him I work in the hospitality industry as well, and I know what to do when a guest isn't please and want to check out. He said since this is an individual own and operated, they have the right to not refund. All he could do was offer us a better room since they are still under renovation. Wtf??!! I work at one as well, and I never been so mad with the service provide and if you offering me a "better" room, why give us a room that is still under renovated?!! I asked to speak to the manager and he said there wasn't one until Monday and I could call in on Monday and talk to him about getting a refund and show him the pictures I took. Please, with this kind of service, guests will just leave and not return.MoreShow less</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded March 21, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2017</t>
+  </si>
+  <si>
+    <t>My husband booked two rooms and checked in but never went inside. I was flying from out of state to visit him since he is in the army. We got to the room, and I never expected to experience with such amenities like this. The cover sheet had a cigarette burn hole, the carpet had an iron burn print, the bathroom door- someone punch it, one of the drawer had a broken piece with a missing handle. I took pictures of the room as proof since we didn't do anything to it. We didn't even stay in the room for more than 5 minutes, and packed our stuff and left. We got to the front desk and I told the front desk worker about the room and how we weren't going to stay but would like a refund. He refuse to give us a refund since he said they don't do refund and he is just a part time worker. I told him I work in the hospitality industry as well, and I know what to do when a guest isn't please and want to check out. He said since this is an individual own and operated, they have the right to not refund. All he could do was offer us a better room since they are still under renovation. Wtf??!! I work at one as well, and I never been so mad with the service provide and if you...My husband booked two rooms and checked in but never went inside. I was flying from out of state to visit him since he is in the army. We got to the room, and I never expected to experience with such amenities like this. The cover sheet had a cigarette burn hole, the carpet had an iron burn print, the bathroom door- someone punch it, one of the drawer had a broken piece with a missing handle. I took pictures of the room as proof since we didn't do anything to it. We didn't even stay in the room for more than 5 minutes, and packed our stuff and left. We got to the front desk and I told the front desk worker about the room and how we weren't going to stay but would like a refund. He refuse to give us a refund since he said they don't do refund and he is just a part time worker. I told him I work in the hospitality industry as well, and I know what to do when a guest isn't please and want to check out. He said since this is an individual own and operated, they have the right to not refund. All he could do was offer us a better room since they are still under renovation. Wtf??!! I work at one as well, and I never been so mad with the service provide and if you offering me a "better" room, why give us a room that is still under renovated?!! I asked to speak to the manager and he said there wasn't one until Monday and I could call in on Monday and talk to him about getting a refund and show him the pictures I took. Please, with this kind of service, guests will just leave and not return.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r465164502-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>465164502</t>
+  </si>
+  <si>
+    <t>03/06/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Had no problems staying here at this property. It's not The Hilton or The Ritz Carrollton but if you want a convenient place to stay in a central location of everything, this is where you would want to stay. Yea they are going into renovations right so I I overlook the wallpaper on the walls and stuff like that. Like I said Great location at a great price!!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2017</t>
+  </si>
+  <si>
+    <t>Had no problems staying here at this property. It's not The Hilton or The Ritz Carrollton but if you want a convenient place to stay in a central location of everything, this is where you would want to stay. Yea they are going into renovations right so I I overlook the wallpaper on the walls and stuff like that. Like I said Great location at a great price!!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r449949302-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>449949302</t>
+  </si>
+  <si>
+    <t>01/06/2017</t>
+  </si>
+  <si>
+    <t>Nightmare in Addison Motel</t>
+  </si>
+  <si>
+    <t>This trip was terrible we had reserved our trip for the New Year's weekend. We walked into our room the smell of a old shed. Our towels were faded spots of yellow there were sticky film on the table burn holes in chairs. Dust everywhere above the beds and mirrors we then called the front desk and complained about the room and he said sorry as in it was just nothing. Then after talking with the front desk there was roaches crawling around. Second time we talked he sent maintenance to spray. He then told us to keep the drain plugged so roaches wouldn't crawl into the tub.... Gross!! So we then decided to get some rest we peeled back every sheet and looked for signs of other bugs glad to say there wasn't any.  Next morning we checked out one day into our three day weekend the front desk lady was not helpful and we were over charged for this horrible weekend stay. I'd never recommend anyone to stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded January 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2017</t>
+  </si>
+  <si>
+    <t>This trip was terrible we had reserved our trip for the New Year's weekend. We walked into our room the smell of a old shed. Our towels were faded spots of yellow there were sticky film on the table burn holes in chairs. Dust everywhere above the beds and mirrors we then called the front desk and complained about the room and he said sorry as in it was just nothing. Then after talking with the front desk there was roaches crawling around. Second time we talked he sent maintenance to spray. He then told us to keep the drain plugged so roaches wouldn't crawl into the tub.... Gross!! So we then decided to get some rest we peeled back every sheet and looked for signs of other bugs glad to say there wasn't any.  Next morning we checked out one day into our three day weekend the front desk lady was not helpful and we were over charged for this horrible weekend stay. I'd never recommend anyone to stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r448911092-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>448911092</t>
+  </si>
+  <si>
+    <t>01/03/2017</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded January 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 6, 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r447320089-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>447320089</t>
+  </si>
+  <si>
+    <t>12/28/2016</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded December 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 30, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r443787759-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>443787759</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>It was a great a stay</t>
+  </si>
+  <si>
+    <t>Great staff polite friendly always keep update if you rooms needs to be clean its safe i like to recommend this to someone else I definitely would come back again .MoreShow less</t>
+  </si>
+  <si>
+    <t>super8addison1, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded December 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 15, 2016</t>
+  </si>
+  <si>
+    <t>Great staff polite friendly always keep update if you rooms needs to be clean its safe i like to recommend this to someone else I definitely would come back again .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r442039592-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>442039592</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r439970864-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>439970864</t>
+  </si>
+  <si>
+    <t>11/25/2016</t>
+  </si>
+  <si>
+    <t>The room had a strange smell - the wallpaper by the sink...</t>
+  </si>
+  <si>
+    <t>The room had a strange smell - the wallpaper by the sink and bathroom was peeling off and there were two bugs crawling on the wall by the peeling wallpaper which was very disturbing - had to put all my things on table and slept with the lights on to avoid any hitchhikers in my bags - I've stayed at this motel for many years because of semi truck parking but it keeps getting worse and I don't know how much longer I can deal with it!!MoreShow less</t>
+  </si>
+  <si>
+    <t>The room had a strange smell - the wallpaper by the sink and bathroom was peeling off and there were two bugs crawling on the wall by the peeling wallpaper which was very disturbing - had to put all my things on table and slept with the lights on to avoid any hitchhikers in my bags - I've stayed at this motel for many years because of semi truck parking but it keeps getting worse and I don't know how much longer I can deal with it!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r427004721-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>427004721</t>
+  </si>
+  <si>
+    <t>10/11/2016</t>
+  </si>
+  <si>
+    <t>Super 8 Galleria</t>
+  </si>
+  <si>
+    <t>Check in took a long time despite having reservations. In the room part of sink had rusted out and there were holes in the sink. Sometimes the light in the bathroom would go on, other times it would not.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 18, 2016</t>
+  </si>
+  <si>
+    <t>Check in took a long time despite having reservations. In the room part of sink had rusted out and there were holes in the sink. Sometimes the light in the bathroom would go on, other times it would not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r426986662-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>426986662</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r425621671-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>425621671</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r421558713-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>421558713</t>
+  </si>
+  <si>
+    <t>09/23/2016</t>
+  </si>
+  <si>
+    <t>Rite Price</t>
+  </si>
+  <si>
+    <t>Dallas is a little high when it comes to over night stays.  This was the least expensive for me by Addison and it was near the Galleria Shops.  They are in the middle of redo so request away from areas being redone.   MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 26, 2016</t>
+  </si>
+  <si>
+    <t>Dallas is a little high when it comes to over night stays.  This was the least expensive for me by Addison and it was near the Galleria Shops.  They are in the middle of redo so request away from areas being redone.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r418121261-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>418121261</t>
+  </si>
+  <si>
+    <t>09/13/2016</t>
+  </si>
+  <si>
+    <t>Horrible staff and dirty rooms</t>
+  </si>
+  <si>
+    <t>Staff was very rude, but night and morning shift. Room that we stayed in was not cleaned properlyMoreShow less</t>
+  </si>
+  <si>
+    <t>Staff was very rude, but night and morning shift. Room that we stayed in was not cleaned properlyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r410088353-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>410088353</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Not prepared</t>
+  </si>
+  <si>
+    <t>When we arrived, the bathroom light didn't work and there was no remote.  There was also a hole in the wall where they have stuffed with a washcloth. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>When we arrived, the bathroom light didn't work and there was no remote.  There was also a hole in the wall where they have stuffed with a washcloth. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r405994220-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>405994220</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>Disgusting</t>
+  </si>
+  <si>
+    <t>My daughter found women underwear in the bathroom as we checked in. The guy at the front desk name paddy told me I was the reason he lost a customer because someone who was gonna check in over heard me reporting it to him an walked out of the lobby. Police had to be called because they wouldn't let me take a pix of it. DO NOT!!!!!!!!!!STAY AT THIS HOTELMoreShow less</t>
+  </si>
+  <si>
+    <t>My daughter found women underwear in the bathroom as we checked in. The guy at the front desk name paddy told me I was the reason he lost a customer because someone who was gonna check in over heard me reporting it to him an walked out of the lobby. Police had to be called because they wouldn't let me take a pix of it. DO NOT!!!!!!!!!!STAY AT THIS HOTELMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r401509804-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>401509804</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>LOCATED AT A PRIME LOCATION, ECONOMICAL, FRIENDLY STAFF!!!</t>
+  </si>
+  <si>
+    <t>Very nice, located in the heart of Addison in Dallas. The front desk staff was very friendly and helpful. I liked the complementary breakfast that is served. My stay was very pleasant. Rooms are nice. Last but not least fits in BUDGET!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Very nice, located in the heart of Addison in Dallas. The front desk staff was very friendly and helpful. I liked the complementary breakfast that is served. My stay was very pleasant. Rooms are nice. Last but not least fits in BUDGET!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r400560095-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>400560095</t>
+  </si>
+  <si>
+    <t>08/02/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r393302977-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>393302977</t>
+  </si>
+  <si>
+    <t>07/16/2016</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>The room was horrible beds were uncomfortable and bathroom not clean no hot water and carpet was dirty. I will not stay there again front desk terrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded August 3, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2016</t>
+  </si>
+  <si>
+    <t>The room was horrible beds were uncomfortable and bathroom not clean no hot water and carpet was dirty. I will not stay there again front desk terrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r390117398-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>390117398</t>
+  </si>
+  <si>
+    <t>07/07/2016</t>
+  </si>
+  <si>
+    <t>Needs infestation clean up</t>
+  </si>
+  <si>
+    <t>There were signs of bugs I have pictures. Also I was bitten because whine they cleaned up they never checked he rooms to see if any bugs are there and a mosquito ate me up. I'm allergic so my left side of body is swollen. There was a Burt spot on the wall and a actual hole in the wall. The bathtub was not cleaned properly and more was the towels in the room.MoreShow less</t>
+  </si>
+  <si>
+    <t>There were signs of bugs I have pictures. Also I was bitten because whine they cleaned up they never checked he rooms to see if any bugs are there and a mosquito ate me up. I'm allergic so my left side of body is swollen. There was a Burt spot on the wall and a actual hole in the wall. The bathtub was not cleaned properly and more was the towels in the room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r386513035-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>386513035</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Not a good feeling as soon as we entered the office!!</t>
+  </si>
+  <si>
+    <t>Booked this hotel with points from one of my cc after reading some o f the reviews. We go there and just the check in office already was shady. Person wanted extra $20 because I was checking in before 2pm. I said no and he said no problem. Office smelled as my wife needed to step outside. Got the room and went we went upstairs you can see that this was not a room that you wanted to stay in, decor, beds etc were from 1970. We walked out and gave the keys back to the guy that was trying to switch my room to something better. We said no and drove off.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2016</t>
+  </si>
+  <si>
+    <t>Booked this hotel with points from one of my cc after reading some o f the reviews. We go there and just the check in office already was shady. Person wanted extra $20 because I was checking in before 2pm. I said no and he said no problem. Office smelled as my wife needed to step outside. Got the room and went we went upstairs you can see that this was not a room that you wanted to stay in, decor, beds etc were from 1970. We walked out and gave the keys back to the guy that was trying to switch my room to something better. We said no and drove off.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r378651287-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>378651287</t>
+  </si>
+  <si>
+    <t>06/01/2016</t>
+  </si>
+  <si>
+    <t>Decent Price for Older Motel</t>
+  </si>
+  <si>
+    <t>Convenient location, easy access, ample parking, clean room, comfortable bed, and helpful staff.This is an older property that is in much better shape now than it was a year ago. All I needed was a place to sleep and bathe. For a guy on a budget, this hotel hit the spot.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 24, 2016</t>
+  </si>
+  <si>
+    <t>Convenient location, easy access, ample parking, clean room, comfortable bed, and helpful staff.This is an older property that is in much better shape now than it was a year ago. All I needed was a place to sleep and bathe. For a guy on a budget, this hotel hit the spot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r374357142-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>374357142</t>
+  </si>
+  <si>
+    <t>05/18/2016</t>
+  </si>
+  <si>
+    <t>Unhappy</t>
+  </si>
+  <si>
+    <t>I was very dissatisfied with my stay. First, the front desk attendant was not there when I arrived and the door was locked. Next, the bathtub was stopped up and I had to stand in ankle deep water while taking a shower. Lastly, there were bugs in the bathroom. MoreShow less</t>
+  </si>
+  <si>
+    <t>I was very dissatisfied with my stay. First, the front desk attendant was not there when I arrived and the door was locked. Next, the bathtub was stopped up and I had to stand in ankle deep water while taking a shower. Lastly, there were bugs in the bathroom. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r367938579-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>367938579</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>Awful</t>
+  </si>
+  <si>
+    <t>You definitely get what you pay for, old carpet, wallpaper coming off the walls, giant hole in the sink...I was fortunate enough to be put in a room full of BED BUGS. I have several bites on my arms, legs, and torso. Went to the front desk to address the situtation, only to be told off the bat "I'm not giving you a refund", so I asked to simply move rooms. When maintenance went in the room they found more bugs inside my pillow cases and under the comforter. Absolutely disgusting.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>You definitely get what you pay for, old carpet, wallpaper coming off the walls, giant hole in the sink...I was fortunate enough to be put in a room full of BED BUGS. I have several bites on my arms, legs, and torso. Went to the front desk to address the situtation, only to be told off the bat "I'm not giving you a refund", so I asked to simply move rooms. When maintenance went in the room they found more bugs inside my pillow cases and under the comforter. Absolutely disgusting.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r361548465-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>361548465</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Illegally doing business</t>
+  </si>
+  <si>
+    <t>I was kind enough to reserve a room for an old friend of mine because you have to have a credit card online to do so. The reservation was for only one evening and I met my friend at the hotel to make sure he got checked in OK and he ended up paying cash comma on a technicality for that one evening because my credit card was on file if damages were done to the room or anything excessive I could have been held liable. I made it clear that I was not authorizing any other charges to be added to my card though. After that one evening my friend ended up staying longer at the location on his own accord paying cash. My name no longer had anything to do with those separate reservations. However comma somehow the hotel had managed to have a record of my credit card that I had used to place the reservation for the one night the previous week. I found this out because when he checked out they falsely accused him of damaging the room which this hotel is known for falsely accusing people of that when people complain against them and they used my card to pay for the damages. Somehow they illegally have the numbers from my credit card and charged my card. This is wrong in so many ways. My name should have had nothing to do with any...I was kind enough to reserve a room for an old friend of mine because you have to have a credit card online to do so. The reservation was for only one evening and I met my friend at the hotel to make sure he got checked in OK and he ended up paying cash comma on a technicality for that one evening because my credit card was on file if damages were done to the room or anything excessive I could have been held liable. I made it clear that I was not authorizing any other charges to be added to my card though. After that one evening my friend ended up staying longer at the location on his own accord paying cash. My name no longer had anything to do with those separate reservations. However comma somehow the hotel had managed to have a record of my credit card that I had used to place the reservation for the one night the previous week. I found this out because when he checked out they falsely accused him of damaging the room which this hotel is known for falsely accusing people of that when people complain against them and they used my card to pay for the damages. Somehow they illegally have the numbers from my credit card and charged my card. This is wrong in so many ways. My name should have had nothing to do with any of his other stays at this hotel due to the fact that I made a reservation checking in on March 20th checking out on 21st comma and he stays after that had nothing to do with my reservation. I have already filed a dispute against the charge with my credit card company but that doesn't seem to be enough to be quite honest with you because obtaining my credit card number to use it for fraudulent reasons is a whole nother issue in itselfMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I was kind enough to reserve a room for an old friend of mine because you have to have a credit card online to do so. The reservation was for only one evening and I met my friend at the hotel to make sure he got checked in OK and he ended up paying cash comma on a technicality for that one evening because my credit card was on file if damages were done to the room or anything excessive I could have been held liable. I made it clear that I was not authorizing any other charges to be added to my card though. After that one evening my friend ended up staying longer at the location on his own accord paying cash. My name no longer had anything to do with those separate reservations. However comma somehow the hotel had managed to have a record of my credit card that I had used to place the reservation for the one night the previous week. I found this out because when he checked out they falsely accused him of damaging the room which this hotel is known for falsely accusing people of that when people complain against them and they used my card to pay for the damages. Somehow they illegally have the numbers from my credit card and charged my card. This is wrong in so many ways. My name should have had nothing to do with any...I was kind enough to reserve a room for an old friend of mine because you have to have a credit card online to do so. The reservation was for only one evening and I met my friend at the hotel to make sure he got checked in OK and he ended up paying cash comma on a technicality for that one evening because my credit card was on file if damages were done to the room or anything excessive I could have been held liable. I made it clear that I was not authorizing any other charges to be added to my card though. After that one evening my friend ended up staying longer at the location on his own accord paying cash. My name no longer had anything to do with those separate reservations. However comma somehow the hotel had managed to have a record of my credit card that I had used to place the reservation for the one night the previous week. I found this out because when he checked out they falsely accused him of damaging the room which this hotel is known for falsely accusing people of that when people complain against them and they used my card to pay for the damages. Somehow they illegally have the numbers from my credit card and charged my card. This is wrong in so many ways. My name should have had nothing to do with any of his other stays at this hotel due to the fact that I made a reservation checking in on March 20th checking out on 21st comma and he stays after that had nothing to do with my reservation. I have already filed a dispute against the charge with my credit card company but that doesn't seem to be enough to be quite honest with you because obtaining my credit card number to use it for fraudulent reasons is a whole nother issue in itselfMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r359333726-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>359333726</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Bed Bugs</t>
+  </si>
+  <si>
+    <t>The title alone should get the property's attention. Stayed in Room 109 for one night. Fairly clean room, old, but pretty standard for a Super 8. Noticed a small blood mark on the sheets the morning after a stay but didn't think much of it. Thought maybe I nicked a pimple or something. By that evening I had bite marks all over my body. Still wasn't sure it was bed bugs until the bites showed up on my wife. Spent the following week treating the itchy unsightly marks and making sure we didn't bring the little beasties home. We stay at several hotels a year and many of them are Super 8s. First ever incident of bed bugs. We feel violated. Very disappointed. Plan on taking pics to verify the incident.MoreShow less</t>
+  </si>
+  <si>
+    <t>The title alone should get the property's attention. Stayed in Room 109 for one night. Fairly clean room, old, but pretty standard for a Super 8. Noticed a small blood mark on the sheets the morning after a stay but didn't think much of it. Thought maybe I nicked a pimple or something. By that evening I had bite marks all over my body. Still wasn't sure it was bed bugs until the bites showed up on my wife. Spent the following week treating the itchy unsightly marks and making sure we didn't bring the little beasties home. We stay at several hotels a year and many of them are Super 8s. First ever incident of bed bugs. We feel violated. Very disappointed. Plan on taking pics to verify the incident.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r358748934-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>358748934</t>
+  </si>
+  <si>
+    <t>03/26/2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r351601249-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>351601249</t>
+  </si>
+  <si>
+    <t>02/28/2016</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded March 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r350171336-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>350171336</t>
+  </si>
+  <si>
+    <t>02/22/2016</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded March 17, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r341655847-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>341655847</t>
+  </si>
+  <si>
+    <t>01/21/2016</t>
+  </si>
+  <si>
+    <t>Roach and ants in bathroom</t>
+  </si>
+  <si>
+    <t>it was absolutely horrible. we paid for 3 nights up front, but woke up the first morning to a giant dead roach in the bathroom with an army of tiny ants crawling around it and feasting on it. I almost stepped on it in my bare feet. there were also ants crawling around the tub. we immediately packed up, called the corporate office, and demanded a refund. they only gave me a "goodwill gesture" of refunding my final 2 nights but wouldn't do anything about that first, and only, night I actually stayed, claiming that I slept there after all. So much for a satisfaction guarantee, by not refunding the night I shared with the roach or at least giving me a complimentary night at any other location in the future. Maybe the roach should pay for part of the room since he shared it with me. Don't ever stay at this place, or at any other Super 8 for that matter if that's how they deal with issues like this. we packed up and drove down the road to another motel and had a much better experience!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>it was absolutely horrible. we paid for 3 nights up front, but woke up the first morning to a giant dead roach in the bathroom with an army of tiny ants crawling around it and feasting on it. I almost stepped on it in my bare feet. there were also ants crawling around the tub. we immediately packed up, called the corporate office, and demanded a refund. they only gave me a "goodwill gesture" of refunding my final 2 nights but wouldn't do anything about that first, and only, night I actually stayed, claiming that I slept there after all. So much for a satisfaction guarantee, by not refunding the night I shared with the roach or at least giving me a complimentary night at any other location in the future. Maybe the roach should pay for part of the room since he shared it with me. Don't ever stay at this place, or at any other Super 8 for that matter if that's how they deal with issues like this. we packed up and drove down the road to another motel and had a much better experience!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r327012035-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>327012035</t>
+  </si>
+  <si>
+    <t>11/15/2015</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r326992209-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>326992209</t>
+  </si>
+  <si>
+    <t>Escorted out</t>
+  </si>
+  <si>
+    <t>This is the dirty place that kicked me and my wife out because of a bad review. With the "crowd " that uses this place its probably for the best that we didnt have to stay. Lock your cars and prepare for the late night crowd to harass you every time you open your door once it gets dark. Be careful MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>This is the dirty place that kicked me and my wife out because of a bad review. With the "crowd " that uses this place its probably for the best that we didnt have to stay. Lock your cars and prepare for the late night crowd to harass you every time you open your door once it gets dark. Be careful More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r326415141-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>326415141</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>Run!</t>
+  </si>
+  <si>
+    <t>This hotel is in need of alot of upgrades and better customer service! First, I placed in a room with a broken latch and was told no one could get me from the outside. After going back and forth about this, seeing I am a woman that is staying there alone! He finally sends a maintenance guy to check the lock. He changes my room. When he asked me to sign my paperwork,  he tried hiding what he wrote. It stated that room didn't have working hot water! I asked to change again,  but he claimed he just found out the broiler went out for the whole hotel! Mind you ut was 4 gentlemen ahead of me and it was no mention of hot water issues! I didn't have time to really argue to get my money back to go to another hotel cause the gentleman seemed not to care about the mess he had me go through! So after taking a cold shower and going to a show, come back to go to sleep,  woke up to bites on my arms and face! So yes go somewhere else! Don't even take a side chick, thot, or whatever else here! You better off sleeping in the car!MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel is in need of alot of upgrades and better customer service! First, I placed in a room with a broken latch and was told no one could get me from the outside. After going back and forth about this, seeing I am a woman that is staying there alone! He finally sends a maintenance guy to check the lock. He changes my room. When he asked me to sign my paperwork,  he tried hiding what he wrote. It stated that room didn't have working hot water! I asked to change again,  but he claimed he just found out the broiler went out for the whole hotel! Mind you ut was 4 gentlemen ahead of me and it was no mention of hot water issues! I didn't have time to really argue to get my money back to go to another hotel cause the gentleman seemed not to care about the mess he had me go through! So after taking a cold shower and going to a show, come back to go to sleep,  woke up to bites on my arms and face! So yes go somewhere else! Don't even take a side chick, thot, or whatever else here! You better off sleeping in the car!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r325189102-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>325189102</t>
+  </si>
+  <si>
+    <t>11/08/2015</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r323736856-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>323736856</t>
+  </si>
+  <si>
+    <t>11/01/2015</t>
+  </si>
+  <si>
+    <t>Basic repairs - Come on!!</t>
+  </si>
+  <si>
+    <t>The upkeep on this property is ridiculous!  We stayed here over a year ago and thought maybe the little repairs that needed to be looked after would be by now. But not so.  It was just as bad at then.  The best thing was that the beds are clean, surprisingly.  The carpet is icky, the bedspreads are old and icky.  The chairs are so bad you don't want to sit down on them. The sink area is broken loose and at the seams and hang in disrepair.  No doubt where the coffee pot leaked water out because of the slant.  The linens in the bathroom are threadbare.  The ice machine still does not work.  Went to the lobby for coffee in the designated hours and not only no coffee, but no one around to talk to.  If we didn't have to be there on family medical emergency we would have left.  We would pay a higher price, but with the condition of the place we paid too much.MoreShow less</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded November 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2015</t>
+  </si>
+  <si>
+    <t>The upkeep on this property is ridiculous!  We stayed here over a year ago and thought maybe the little repairs that needed to be looked after would be by now. But not so.  It was just as bad at then.  The best thing was that the beds are clean, surprisingly.  The carpet is icky, the bedspreads are old and icky.  The chairs are so bad you don't want to sit down on them. The sink area is broken loose and at the seams and hang in disrepair.  No doubt where the coffee pot leaked water out because of the slant.  The linens in the bathroom are threadbare.  The ice machine still does not work.  Went to the lobby for coffee in the designated hours and not only no coffee, but no one around to talk to.  If we didn't have to be there on family medical emergency we would have left.  We would pay a higher price, but with the condition of the place we paid too much.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r320232682-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>320232682</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r296457032-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>296457032</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>old and in need of repairs</t>
+  </si>
+  <si>
+    <t>Overall the hotel had many issues. There was rotten decay on the walkways for the second floor. It was very dated in style. Carpet had something in it and it had turned extremely hard. Floor was dirty. The sink was cracked and chipped. The AC may funky noises all night long. And the TVs and furniture looked like it had been there for the last 10 maybe 15 years. So overall I give this very low rating it only gets a 2 star because I've stayed in worse. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Overall the hotel had many issues. There was rotten decay on the walkways for the second floor. It was very dated in style. Carpet had something in it and it had turned extremely hard. Floor was dirty. The sink was cracked and chipped. The AC may funky noises all night long. And the TVs and furniture looked like it had been there for the last 10 maybe 15 years. So overall I give this very low rating it only gets a 2 star because I've stayed in worse. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r294845395-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>294845395</t>
+  </si>
+  <si>
+    <t>08/01/2015</t>
+  </si>
+  <si>
+    <t>Nice Staff</t>
+  </si>
+  <si>
+    <t>Great location in Addison close to lots of restaurants and the airport.  The staff was helpful, but the place is in need of a major remodel.  .  Wallpaper from the 80's is peeling and the light fixture over the sink needed some help to start.  The furniture has seen much better days.  Nice location and  could be a very good place to stay with just a bit of updating. MoreShow less</t>
+  </si>
+  <si>
+    <t>Great location in Addison close to lots of restaurants and the airport.  The staff was helpful, but the place is in need of a major remodel.  .  Wallpaper from the 80's is peeling and the light fixture over the sink needed some help to start.  The furniture has seen much better days.  Nice location and  could be a very good place to stay with just a bit of updating. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r293782113-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>293782113</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t>What a joke</t>
+  </si>
+  <si>
+    <t>I decided to try them again, big mistake. I set reservation on line and upon check in i wad told i am no longer allowed to stay at the propesrty  (prob after my last review). Again a joke. Ill never stay there again and tell everyone the sameMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>I decided to try them again, big mistake. I set reservation on line and upon check in i wad told i am no longer allowed to stay at the propesrty  (prob after my last review). Again a joke. Ill never stay there again and tell everyone the sameMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r286203463-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>286203463</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Old and Outdated</t>
+  </si>
+  <si>
+    <t>The only positive comment is the desk clerks were very nice especially Sharon. The building, room accommodations, and breakfast area were old and outdated. I will never stay at this hotel again.     MoreShow less</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded August 1, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2015</t>
+  </si>
+  <si>
+    <t>The only positive comment is the desk clerks were very nice especially Sharon. The building, room accommodations, and breakfast area were old and outdated. I will never stay at this hotel again.     More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r284224945-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>284224945</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Poorly Maintained</t>
+  </si>
+  <si>
+    <t>Definitely not for a family stay, for a individual on a road trip may be if your looking for a cheep stay ( I mean very cheep) ... but poor quality and cleanliness 2/10MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Definitely not for a family stay, for a individual on a road trip may be if your looking for a cheep stay ( I mean very cheep) ... but poor quality and cleanliness 2/10More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r281708489-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>281708489</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r272888807-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>272888807</t>
+  </si>
+  <si>
+    <t>05/18/2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r260627396-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>260627396</t>
+  </si>
+  <si>
+    <t>03/19/2015</t>
+  </si>
+  <si>
+    <t>Good stay for a good price</t>
+  </si>
+  <si>
+    <t>I had about a week to put in a reservation somewhere in the vicinity of a convention I was going to in a very hurried timeframe. I did not expect to be going anywhere that weekend, but it was something not too out of the way in which I could try and relax.The room was fine and the A/C worked perfectly. All the appropriate things such as towels, shampoo, soap, and the like were in place and the check in/check out process was quick and very friendly. I had almost wanted to stay another night just to relax a bit more, but other matters seemed more pressing than just sleeping in a room for rent. The only negative thing honestly was the carpet was not completely stapled to the floor, but for the price of the room the shower temperature and everything seemed to be in working order. Asking the front desk for an ATM, they were fairly knowledgeable of the area and were easy to talk to. I was also a fan of how close places there were for food and basic shopping essentials.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I had about a week to put in a reservation somewhere in the vicinity of a convention I was going to in a very hurried timeframe. I did not expect to be going anywhere that weekend, but it was something not too out of the way in which I could try and relax.The room was fine and the A/C worked perfectly. All the appropriate things such as towels, shampoo, soap, and the like were in place and the check in/check out process was quick and very friendly. I had almost wanted to stay another night just to relax a bit more, but other matters seemed more pressing than just sleeping in a room for rent. The only negative thing honestly was the carpet was not completely stapled to the floor, but for the price of the room the shower temperature and everything seemed to be in working order. Asking the front desk for an ATM, they were fairly knowledgeable of the area and were easy to talk to. I was also a fan of how close places there were for food and basic shopping essentials.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r258338585-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>258338585</t>
+  </si>
+  <si>
+    <t>03/08/2015</t>
+  </si>
+  <si>
+    <t>The rooms were a great size, there was a couch and table...</t>
+  </si>
+  <si>
+    <t>The rooms were a great size, there was a couch and table set. Personal microwave and fridge in room too. Far enough from the office to feel comfortable, but not so far away as to feel distant. Only bad thing was that a couple of the other guests were smoking/talking outside our door (NOT THE HOTEL'S FAULT.) MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded March 12, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2015</t>
+  </si>
+  <si>
+    <t>The rooms were a great size, there was a couch and table set. Personal microwave and fridge in room too. Far enough from the office to feel comfortable, but not so far away as to feel distant. Only bad thing was that a couple of the other guests were smoking/talking outside our door (NOT THE HOTEL'S FAULT.) More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r246261342-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>246261342</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Breakfast very poor;bathroom tissue paper bad quality...</t>
+  </si>
+  <si>
+    <t>Breakfast very poor;bathroom tissue paper bad quality; pillows stink and are too tall ;coffee bad ; light bulbs out of work in the bathroom ; there is wi-fi available but doesn't work in the rooms...etc.  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded January 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2015</t>
+  </si>
+  <si>
+    <t>Breakfast very poor;bathroom tissue paper bad quality; pillows stink and are too tall ;coffee bad ; light bulbs out of work in the bathroom ; there is wi-fi available but doesn't work in the rooms...etc.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r238370682-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>238370682</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded November 20, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 20, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r236106344-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>236106344</t>
+  </si>
+  <si>
+    <t>10/24/2014</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>This hotel was a good place to stay until now. The hot water was off being fixed when my wife needed to shower to go to dinner. When we called the front desk we were told tough, we could check out!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded October 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 31, 2014</t>
+  </si>
+  <si>
+    <t>This hotel was a good place to stay until now. The hot water was off being fixed when my wife needed to shower to go to dinner. When we called the front desk we were told tough, we could check out!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r222071257-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>222071257</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded September 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r219044501-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>219044501</t>
+  </si>
+  <si>
+    <t>08/02/2014</t>
+  </si>
+  <si>
+    <t>2 night stay was fine</t>
+  </si>
+  <si>
+    <t>As one of the last reviewers mentioned, the bed was clean and comfortable, the AC worked, and the staff were friendly.  The only complaint I had was with the toilet- it only flushed well if the handle was held until the water began to drain and the noise was very loud.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded August 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2014</t>
+  </si>
+  <si>
+    <t>As one of the last reviewers mentioned, the bed was clean and comfortable, the AC worked, and the staff were friendly.  The only complaint I had was with the toilet- it only flushed well if the handle was held until the water began to drain and the noise was very loud.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r217864629-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>217864629</t>
+  </si>
+  <si>
+    <t>07/27/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r199451345-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>199451345</t>
+  </si>
+  <si>
+    <t>03/31/2014</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r199448759-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>199448759</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded April 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 15, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r199208566-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>199208566</t>
+  </si>
+  <si>
+    <t>03/29/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r192711369-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>192711369</t>
+  </si>
+  <si>
+    <t>01/31/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r192497182-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>192497182</t>
+  </si>
+  <si>
+    <t>01/29/2014</t>
+  </si>
+  <si>
+    <t>super8addisontx, Webmaster at Super 8 by the Galleria / North Dallas, responded to this reviewResponded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r190211339-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>190211339</t>
+  </si>
+  <si>
+    <t>01/08/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r186382599-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>186382599</t>
+  </si>
+  <si>
+    <t>11/30/2013</t>
+  </si>
+  <si>
+    <t>Worst Super 8 Experience Ever!</t>
+  </si>
+  <si>
+    <t>My husband and I choose Super 8 because they're cheap and we normally only stay a few hours in the rooms. Our expectations aren't high because you get what you pay for. However, this hotel is at the bottom of the barrel. When we checked in the guy seemed nice but the rooms were horrible:  Dirty lamp shades, mold around the tub, water didn't drain properly out of the tub, water pressure was poor, room had a stench, the furniture was raggedy and warn, lighting in the room was poor, towels were horrid, we stayed two nights and asked the maid if she would come back and clean our room, we came back to an unclean room and no toilet tissue. The guy at the front desk had an attitude because we asked him to bring us sone tissue. Just horrible all around!  Ps don't sleep in room 137!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>113Super8, General Manager at Super 8 by the Galleria / North Dallas, responded to this reviewResponded December 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 3, 2013</t>
+  </si>
+  <si>
+    <t>My husband and I choose Super 8 because they're cheap and we normally only stay a few hours in the rooms. Our expectations aren't high because you get what you pay for. However, this hotel is at the bottom of the barrel. When we checked in the guy seemed nice but the rooms were horrible:  Dirty lamp shades, mold around the tub, water didn't drain properly out of the tub, water pressure was poor, room had a stench, the furniture was raggedy and warn, lighting in the room was poor, towels were horrid, we stayed two nights and asked the maid if she would come back and clean our room, we came back to an unclean room and no toilet tissue. The guy at the front desk had an attitude because we asked him to bring us sone tissue. Just horrible all around!  Ps don't sleep in room 137!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r186291104-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>186291104</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r183092430-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>183092430</t>
+  </si>
+  <si>
+    <t>10/31/2013</t>
+  </si>
+  <si>
+    <t>Dirty and nothing works.</t>
+  </si>
+  <si>
+    <t>The beds don't have fitted sheets just a mattress pad to hide the enormous amount of stains on the bed. Huge bloodstain on the side of the bed. Lights flicker if they come on at all. Mold in shower and cold hot handle was broken. Alarm clock and tv both broken. Coffee pot dirty smells of urine and smoke. Ac doesn't stay on. Floors are disgustingly filthy. Black in some spots. Staff rude to top if off, Never again!MoreShow less</t>
+  </si>
+  <si>
+    <t>The beds don't have fitted sheets just a mattress pad to hide the enormous amount of stains on the bed. Huge bloodstain on the side of the bed. Lights flicker if they come on at all. Mold in shower and cold hot handle was broken. Alarm clock and tv both broken. Coffee pot dirty smells of urine and smoke. Ac doesn't stay on. Floors are disgustingly filthy. Black in some spots. Staff rude to top if off, Never again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r178377713-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>178377713</t>
+  </si>
+  <si>
+    <t>09/23/2013</t>
+  </si>
+  <si>
+    <t>Inspect your room first!</t>
+  </si>
+  <si>
+    <t>I had stayed at this same Super 8 in September 2012 so didn't hesitate to reserve again for our September 2013 trip to Dallas.  Much had changed.  Very dingy room with dirty carpet. The AC worked, but the setting was only Very Cold or Colder, ran it until the room was comfy, then had to turn off to prevent freezing!  The light over the vanity flickered endlessly and once in awhile came on fully with only a tiny bit of flickering.  Non-working coffee pot in the room which may not matter to some, but I need my java early in the morning!  Broken alarm clock, permanently set to 8:08. The last morning I was there the rather persnickety bathroom sink knob fell off in my hand.   Unlike the previous stay, there were some rather unsavory acting people staying at the motel that made me just a tad nervous.  Breakfast was adequate, the breakfast area is quite small.  Great location which is why I stayed there.  I will choose a different hotel for the 2014 Dallas trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>I had stayed at this same Super 8 in September 2012 so didn't hesitate to reserve again for our September 2013 trip to Dallas.  Much had changed.  Very dingy room with dirty carpet. The AC worked, but the setting was only Very Cold or Colder, ran it until the room was comfy, then had to turn off to prevent freezing!  The light over the vanity flickered endlessly and once in awhile came on fully with only a tiny bit of flickering.  Non-working coffee pot in the room which may not matter to some, but I need my java early in the morning!  Broken alarm clock, permanently set to 8:08. The last morning I was there the rather persnickety bathroom sink knob fell off in my hand.   Unlike the previous stay, there were some rather unsavory acting people staying at the motel that made me just a tad nervous.  Breakfast was adequate, the breakfast area is quite small.  Great location which is why I stayed there.  I will choose a different hotel for the 2014 Dallas trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r170965022-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>170965022</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>A nightmare I do not wish on my worst enemy</t>
+  </si>
+  <si>
+    <t>August 3, 2013, I arrived around 7:00 pm. The first thought that came to my mind was this is a truck stop motel. I have stayed in Super 8 in different cities in Dallas, TX but this was a horror experience. The thug they had at the front desk was short with his responses and very rude. The room I checked in was extremely hot and the odor reminded me of a cat litter box and urine. In addition, the A/C was set to the highest it would allow and I became red due to the room so hot no joke. I proceeded to call the front desk to notify him I would like my money back due to the air not working, the bad odor, and the filthiness of the room. He refused to refund my money and stated since I have been in the room five minutes he cannot give me a refund but he can try switching me to a new room.  I advised him that it is not in writing nor did he verbally inform me about the five-minute policy but he stated it does not have to be in writing. When I went to the second room, it was worse. The A/C was hanging out of the wall and it was hotter. I called the desk, he refused to get me a manger, and he became argumentative so I had to come back to the...August 3, 2013, I arrived around 7:00 pm. The first thought that came to my mind was this is a truck stop motel. I have stayed in Super 8 in different cities in Dallas, TX but this was a horror experience. The thug they had at the front desk was short with his responses and very rude. The room I checked in was extremely hot and the odor reminded me of a cat litter box and urine. In addition, the A/C was set to the highest it would allow and I became red due to the room so hot no joke. I proceeded to call the front desk to notify him I would like my money back due to the air not working, the bad odor, and the filthiness of the room. He refused to refund my money and stated since I have been in the room five minutes he cannot give me a refund but he can try switching me to a new room.  I advised him that it is not in writing nor did he verbally inform me about the five-minute policy but he stated it does not have to be in writing. When I went to the second room, it was worse. The A/C was hanging out of the wall and it was hotter. I called the desk, he refused to get me a manger, and he became argumentative so I had to come back to the front desk and debate about getting my money back. I proceeded to call the Addison police, because he refused to get me a manger and provided no options to me. Remind you I had reservations for an event that had to be changed. In addition, it took 2 months for me to get the reservations and this experience is defiantly something I did not need that evening. The police arrived and inquired about the matter but the officers stated it is considered a civil lawsuit I would have to take up in court. The representative at the desk offered me a third room, which all of a sudden the A/C worked but the smell was still awful. I had to purchase disinfectant products and sanitize the room. The room had Iron marks on the carpet and the tub had mildew in the corner. Also, the bad only had a mattress pad with a sheet over it with a flannel blanket and the Iron board was disgusting with brown marks on it. The vents were so dusty and smelly. Finally, the TV did not come on and the clock did not work. Thank God, there were no bed bugs but I did file a complaint with corporate and I will be reporting them to the Better Business Bureau. Please do not set yourself up for failure and save your money by not going to this Super 8 in Addison, TX.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>August 3, 2013, I arrived around 7:00 pm. The first thought that came to my mind was this is a truck stop motel. I have stayed in Super 8 in different cities in Dallas, TX but this was a horror experience. The thug they had at the front desk was short with his responses and very rude. The room I checked in was extremely hot and the odor reminded me of a cat litter box and urine. In addition, the A/C was set to the highest it would allow and I became red due to the room so hot no joke. I proceeded to call the front desk to notify him I would like my money back due to the air not working, the bad odor, and the filthiness of the room. He refused to refund my money and stated since I have been in the room five minutes he cannot give me a refund but he can try switching me to a new room.  I advised him that it is not in writing nor did he verbally inform me about the five-minute policy but he stated it does not have to be in writing. When I went to the second room, it was worse. The A/C was hanging out of the wall and it was hotter. I called the desk, he refused to get me a manger, and he became argumentative so I had to come back to the...August 3, 2013, I arrived around 7:00 pm. The first thought that came to my mind was this is a truck stop motel. I have stayed in Super 8 in different cities in Dallas, TX but this was a horror experience. The thug they had at the front desk was short with his responses and very rude. The room I checked in was extremely hot and the odor reminded me of a cat litter box and urine. In addition, the A/C was set to the highest it would allow and I became red due to the room so hot no joke. I proceeded to call the front desk to notify him I would like my money back due to the air not working, the bad odor, and the filthiness of the room. He refused to refund my money and stated since I have been in the room five minutes he cannot give me a refund but he can try switching me to a new room.  I advised him that it is not in writing nor did he verbally inform me about the five-minute policy but he stated it does not have to be in writing. When I went to the second room, it was worse. The A/C was hanging out of the wall and it was hotter. I called the desk, he refused to get me a manger, and he became argumentative so I had to come back to the front desk and debate about getting my money back. I proceeded to call the Addison police, because he refused to get me a manger and provided no options to me. Remind you I had reservations for an event that had to be changed. In addition, it took 2 months for me to get the reservations and this experience is defiantly something I did not need that evening. The police arrived and inquired about the matter but the officers stated it is considered a civil lawsuit I would have to take up in court. The representative at the desk offered me a third room, which all of a sudden the A/C worked but the smell was still awful. I had to purchase disinfectant products and sanitize the room. The room had Iron marks on the carpet and the tub had mildew in the corner. Also, the bad only had a mattress pad with a sheet over it with a flannel blanket and the Iron board was disgusting with brown marks on it. The vents were so dusty and smelly. Finally, the TV did not come on and the clock did not work. Thank God, there were no bed bugs but I did file a complaint with corporate and I will be reporting them to the Better Business Bureau. Please do not set yourself up for failure and save your money by not going to this Super 8 in Addison, TX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r169630344-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>169630344</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r167631284-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>167631284</t>
+  </si>
+  <si>
+    <t>07/15/2013</t>
+  </si>
+  <si>
+    <t>Very pleasant experience</t>
+  </si>
+  <si>
+    <t>Clean, comfortable room. Wi-Fi availability. Conveniently located near my meeting site. Located near restaurant row. Overall--a very pleasant experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r167350484-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>167350484</t>
+  </si>
+  <si>
+    <t>07/12/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r164936471-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>164936471</t>
+  </si>
+  <si>
+    <t>06/23/2013</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r161729211-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>161729211</t>
+  </si>
+  <si>
+    <t>05/24/2013</t>
+  </si>
+  <si>
+    <t>Very good for the price AND nice owner</t>
+  </si>
+  <si>
+    <t>Why paying sooo much for a bed, a bathroom and a clean place? That's what I was looking for in my last day after a business meeting at downtown. I'd been in an expensive hotel paid by my company but - for doing a last day shopping - I went to this Super 8 near the Galleria Mall.They were very kind and, as I didn't have a car, after some talk the owner himself took me to the mall in his own car. That's the kind of service attitude I value, moreover at so many kilometers from my country.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r160849050-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>160849050</t>
+  </si>
+  <si>
+    <t>05/15/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r158683162-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>158683162</t>
+  </si>
+  <si>
+    <t>04/24/2013</t>
+  </si>
+  <si>
+    <t>I enjoyed the stay but was looking for a suite and it was...</t>
+  </si>
+  <si>
+    <t>I enjoyed the stay but was looking for a suite and it was like a regular room. The overall stay at the hotel was excellent.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r154400714-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>154400714</t>
+  </si>
+  <si>
+    <t>03/12/2013</t>
+  </si>
+  <si>
+    <t>Never again...</t>
+  </si>
+  <si>
+    <t>The bed sheets were dirty, so soiled that I used the washing machines to wash them myself at 2am because I refused to sleep on them. There was a huge chunk missing from the bottom of the door letting in any bug that chose to wander my way. I stuffed a towel in the hole to keep out the bugs. The washer/dryer was against the wall that my bed was next too, so I didn't sleep at all, as there was laundry running all night long. Worst stay ever...MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>The bed sheets were dirty, so soiled that I used the washing machines to wash them myself at 2am because I refused to sleep on them. There was a huge chunk missing from the bottom of the door letting in any bug that chose to wander my way. I stuffed a towel in the hole to keep out the bugs. The washer/dryer was against the wall that my bed was next too, so I didn't sleep at all, as there was laundry running all night long. Worst stay ever...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r153807032-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>153807032</t>
+  </si>
+  <si>
+    <t>03/05/2013</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r149833270-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>149833270</t>
+  </si>
+  <si>
+    <t>01/16/2013</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r145561896-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>145561896</t>
+  </si>
+  <si>
+    <t>11/16/2012</t>
+  </si>
+  <si>
+    <t>Pet Friendly winner</t>
+  </si>
+  <si>
+    <t>I rated this Super 8 very good because the staff here is wonderful.  They are pet friendly and very reasonably priced.  I was here for seven days so I think I have a pretty good handle on the property.  The only con for this hotel may have be my room only so keep that in mind, the carpet needed cleaned badly.  I had to wear house shoes because the carpet colors hide the dirt pretty well but the soles of my feet told the real story.  The Hotel was a mile away from my conference site so I could run back and forth to let the dog out so the trade off was acceptable.  It's obvious it is not a brand new property but everything else was clean, as I said earlier the staff went out of their way to make sure my stay was great.  They serve a generic breakfast, the coffee is good, and the rooms have fridges and microwaves.  I feel I got exactly what I paid for and I was satisfied with the value.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>I rated this Super 8 very good because the staff here is wonderful.  They are pet friendly and very reasonably priced.  I was here for seven days so I think I have a pretty good handle on the property.  The only con for this hotel may have be my room only so keep that in mind, the carpet needed cleaned badly.  I had to wear house shoes because the carpet colors hide the dirt pretty well but the soles of my feet told the real story.  The Hotel was a mile away from my conference site so I could run back and forth to let the dog out so the trade off was acceptable.  It's obvious it is not a brand new property but everything else was clean, as I said earlier the staff went out of their way to make sure my stay was great.  They serve a generic breakfast, the coffee is good, and the rooms have fridges and microwaves.  I feel I got exactly what I paid for and I was satisfied with the value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r145368131-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>145368131</t>
+  </si>
+  <si>
+    <t>11/14/2012</t>
+  </si>
+  <si>
+    <t>never again at that location</t>
+  </si>
+  <si>
+    <t>clean the place up. paint the place and update decor of rooms. i asked for a non-smoking room that smelled of smoke. i liked the location  and the front-line staff was great,however housekeeping was not great and maid spoke no english so communication was poor</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r145168326-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>145168326</t>
+  </si>
+  <si>
+    <t>11/11/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r142818521-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>142818521</t>
+  </si>
+  <si>
+    <t>10/14/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r142468074-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>142468074</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r142450355-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>142450355</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r134384826-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>134384826</t>
+  </si>
+  <si>
+    <t>07/14/2012</t>
+  </si>
+  <si>
+    <t>Standard Super 8 not cheap nor expensive</t>
+  </si>
+  <si>
+    <t>This is a standard Super 8 with comfy beds and room to work. Normally I do enjoy the simple comfort of Super 8 as one knows what to expect, however I may have been very unlucky with my room as there were hot water in the sink, but not in the shower!!! Staying for more than one night in the heat was not fun when it was cold freshening up in the shower.Staff was helpful, location OK with restaurants close by.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r133527430-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>133527430</t>
+  </si>
+  <si>
+    <t>07/05/2012</t>
+  </si>
+  <si>
+    <t>Super 8 Addison</t>
+  </si>
+  <si>
+    <t>We found this room on-line, read other reviews, and it was a great price, quiet, and very convenient to the State Convention we were attending for a week. Check in and out was easy,  and the staff were all very pleasant and helpful. We would go back here anytime when in the area and suggest it to friends. Thanks!</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r133464943-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>133464943</t>
+  </si>
+  <si>
+    <t>07/04/2012</t>
+  </si>
+  <si>
+    <t>good deal and location</t>
+  </si>
+  <si>
+    <t>After reading other reviews we went with this hotel just needing a place for the night.  It was in a good location, surrounded by good businesses and restaraunts, not too far off the freeway.  It was clean, it was quiet, everything worked fine, kids loved watching cable as we don't have it at home.  We found out after reserving that they had adjoining rooms, as in door-in-between some but had put in a special request that we be adjoining, as in right next door.  One room had a door into another room so should have contacted the hotel directly to see what type of room it was so will keep that in mind next time so hubby and I can stay in same room as kids are too little to be left alone.  They upgraded both rooms though so we could be next door without additional cost, nice surprise. It rained while we were there so didn't get to take part in the pool right outside our room, kids were a bit bummed but who can control the weather.  The continental breakfast was decent for the rate of the room it was adequate, my room actually slept in so we were late in getting there but kids ate the cereal and filled up on muffins and such so got us started. The only downside was nothing to do with the hotel, our phone rang at 4am with a wrong number,...After reading other reviews we went with this hotel just needing a place for the night.  It was in a good location, surrounded by good businesses and restaraunts, not too far off the freeway.  It was clean, it was quiet, everything worked fine, kids loved watching cable as we don't have it at home.  We found out after reserving that they had adjoining rooms, as in door-in-between some but had put in a special request that we be adjoining, as in right next door.  One room had a door into another room so should have contacted the hotel directly to see what type of room it was so will keep that in mind next time so hubby and I can stay in same room as kids are too little to be left alone.  They upgraded both rooms though so we could be next door without additional cost, nice surprise. It rained while we were there so didn't get to take part in the pool right outside our room, kids were a bit bummed but who can control the weather.  The continental breakfast was decent for the rate of the room it was adequate, my room actually slept in so we were late in getting there but kids ate the cereal and filled up on muffins and such so got us started. The only downside was nothing to do with the hotel, our phone rang at 4am with a wrong number, so much for sleeping in on vacation.  We would look to stay there again if we were wanting someplace family friendly and safe.  Thanks for a good stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>After reading other reviews we went with this hotel just needing a place for the night.  It was in a good location, surrounded by good businesses and restaraunts, not too far off the freeway.  It was clean, it was quiet, everything worked fine, kids loved watching cable as we don't have it at home.  We found out after reserving that they had adjoining rooms, as in door-in-between some but had put in a special request that we be adjoining, as in right next door.  One room had a door into another room so should have contacted the hotel directly to see what type of room it was so will keep that in mind next time so hubby and I can stay in same room as kids are too little to be left alone.  They upgraded both rooms though so we could be next door without additional cost, nice surprise. It rained while we were there so didn't get to take part in the pool right outside our room, kids were a bit bummed but who can control the weather.  The continental breakfast was decent for the rate of the room it was adequate, my room actually slept in so we were late in getting there but kids ate the cereal and filled up on muffins and such so got us started. The only downside was nothing to do with the hotel, our phone rang at 4am with a wrong number,...After reading other reviews we went with this hotel just needing a place for the night.  It was in a good location, surrounded by good businesses and restaraunts, not too far off the freeway.  It was clean, it was quiet, everything worked fine, kids loved watching cable as we don't have it at home.  We found out after reserving that they had adjoining rooms, as in door-in-between some but had put in a special request that we be adjoining, as in right next door.  One room had a door into another room so should have contacted the hotel directly to see what type of room it was so will keep that in mind next time so hubby and I can stay in same room as kids are too little to be left alone.  They upgraded both rooms though so we could be next door without additional cost, nice surprise. It rained while we were there so didn't get to take part in the pool right outside our room, kids were a bit bummed but who can control the weather.  The continental breakfast was decent for the rate of the room it was adequate, my room actually slept in so we were late in getting there but kids ate the cereal and filled up on muffins and such so got us started. The only downside was nothing to do with the hotel, our phone rang at 4am with a wrong number, so much for sleeping in on vacation.  We would look to stay there again if we were wanting someplace family friendly and safe.  Thanks for a good stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r123568483-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>123568483</t>
+  </si>
+  <si>
+    <t>01/24/2012</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>My wife and I were in town visiting family. I scoured TripAdvisor for a reasonably priced hotel that had breakfast included. I was surprised that Super8s closer into downtown Dallas were substantially higher priced than this one in Addison. I used to live in Addison. It is very safe and still convenient to everything. The only thing that kept this from being a five star is that when we got into our room, the sink area was dirty and a washcloth was left with a lot of dirt on it. Other than that, everything worked fine. The front desk staff was different each day and all of them were very nice and accommodated us in our request for an extra towel and pillow. We left each day only returning to sleep at night and all of our things were left where we left them each day. I was very impressed and will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>My wife and I were in town visiting family. I scoured TripAdvisor for a reasonably priced hotel that had breakfast included. I was surprised that Super8s closer into downtown Dallas were substantially higher priced than this one in Addison. I used to live in Addison. It is very safe and still convenient to everything. The only thing that kept this from being a five star is that when we got into our room, the sink area was dirty and a washcloth was left with a lot of dirt on it. Other than that, everything worked fine. The front desk staff was different each day and all of them were very nice and accommodated us in our request for an extra towel and pillow. We left each day only returning to sleep at night and all of our things were left where we left them each day. I was very impressed and will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r120608285-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>120608285</t>
+  </si>
+  <si>
+    <t>11/14/2011</t>
+  </si>
+  <si>
+    <t>Very Good for its price</t>
+  </si>
+  <si>
+    <t>I was visiting two Universities in Dallas (UNT &amp; UTD) and I wanted to stay in the middle between them, so I chose this one for its location and price. It was quite, safe and in good location. The internet connection was good, they provide good breakfast and the staff were friendly.</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r119126073-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>119126073</t>
+  </si>
+  <si>
+    <t>10/09/2011</t>
+  </si>
+  <si>
+    <t>Great stay, good price</t>
+  </si>
+  <si>
+    <t>It was a nice hotel, clean, all bathroom fixures were perfectly white. Didn't have any problems and the front desk was very friendly. Had a good-size fridge.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r116496916-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>116496916</t>
+  </si>
+  <si>
+    <t>08/09/2011</t>
+  </si>
+  <si>
+    <t>Always there when I need you</t>
+  </si>
+  <si>
+    <t>Great place to stay while on business.  I have stayed with you several times during the last couple of years.  The staff is always great.  Thanks for doing a great job.</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r115933728-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>115933728</t>
+  </si>
+  <si>
+    <t>07/28/2011</t>
+  </si>
+  <si>
+    <t>Nice budget place to stay.</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean rooms.  Decent free breakfast.  Not fancy, but who cares?  I stay there to attend Landmark Education, which is fairly close.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r115300520-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>115300520</t>
+  </si>
+  <si>
+    <t>07/12/2011</t>
+  </si>
+  <si>
+    <t>you can probably find better</t>
+  </si>
+  <si>
+    <t>make sure you know the price before getting there; csr happy to rip you off. good location, decently clean if you don't expect much. regular "continental" breakfast. internet free, working ok for a motel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r90845473-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>90845473</t>
+  </si>
+  <si>
+    <t>12/27/2010</t>
+  </si>
+  <si>
+    <t>The Leader of Low Cost and Good Amenities...</t>
+  </si>
+  <si>
+    <t>I always stay here when visiting Dallas/Addsion. The rooms are great, for the price paid, and the service is wonderful!! My room is always clean, and have never had a problem with this chain ...at this location ....or any location. The hotel is very easy to get in and out of, unlike some of the other hotels located on Beltline. This comes in VERY handy, especially during rush hours where Beltline can be stacked light to light. This Super 8 even has a traffic light right at the corner to make getting out even easier. It's right in the middle of the restaurant row area of Addison, so finding something to eat is never a problem, even if you are on foot. 
+Even those on a small budget can enjoy "J's Waffle House" ...located right in front of the hotel ...very reasonable!!
+The front desk personel and manager couldn't have been more helpful. I, yes me, had made a mistake on my reservation and accidentally made it for the night before we arrived. So when we arrived they couldn't locate our reservation, but did locate our missed night and associated charges. I talked with the manager, who in turned called the Manager to explain my situation and all charges were refunded and I was given a room at the rate I had booked online by mistake, for the previous night. 
+Very helpful and understanding!!!
+Most hotels would have just said...I always stay here when visiting Dallas/Addsion. The rooms are great, for the price paid, and the service is wonderful!! My room is always clean, and have never had a problem with this chain ...at this location ....or any location. The hotel is very easy to get in and out of, unlike some of the other hotels located on Beltline. This comes in VERY handy, especially during rush hours where Beltline can be stacked light to light. This Super 8 even has a traffic light right at the corner to make getting out even easier. It's right in the middle of the restaurant row area of Addison, so finding something to eat is never a problem, even if you are on foot. Even those on a small budget can enjoy "J's Waffle House" ...located right in front of the hotel ...very reasonable!!The front desk personel and manager couldn't have been more helpful. I, yes me, had made a mistake on my reservation and accidentally made it for the night before we arrived. So when we arrived they couldn't locate our reservation, but did locate our missed night and associated charges. I talked with the manager, who in turned called the Manager to explain my situation and all charges were refunded and I was given a room at the rate I had booked online by mistake, for the previous night. Very helpful and understanding!!!Most hotels would have just said "oh well" and pocketed my money, and then charged me for the night I needed. This Super 8 gives you more amenities for your money. They have a fridge right in the room and not just one of those tiny dorm ones either. It's one about twice that size, plus alarm clock, dresser, hangers, etc... I stayed at Motel 9 (wink) down the road on Beltline ...ended up paying more ...for way less. I had a heck of a time trying to get in and out of their place. They also had no dresser, no clock, no fridge, no hangers, cold hard floors, mattress on a platform with no box springs ...and these were touted as "newly remodeled rooms" .....HA!!!About the only down side would be that Super 8 is a little slower in the transistion to flat screen TV's than the rest, and I'm sure, in time, this WILL change ...In fact, I know it will.The TV they had worked fine ...it's just that once you go flat (at home) ....you don't want to go back ....lol. If you stay here in the summer, bring your swimsuit ...the pool was great and very relaxing, the one summer I did stay there.Btw ...I stay here at least once a year (except for the one Motel 9 accident) ...if not more.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>I always stay here when visiting Dallas/Addsion. The rooms are great, for the price paid, and the service is wonderful!! My room is always clean, and have never had a problem with this chain ...at this location ....or any location. The hotel is very easy to get in and out of, unlike some of the other hotels located on Beltline. This comes in VERY handy, especially during rush hours where Beltline can be stacked light to light. This Super 8 even has a traffic light right at the corner to make getting out even easier. It's right in the middle of the restaurant row area of Addison, so finding something to eat is never a problem, even if you are on foot. 
+Even those on a small budget can enjoy "J's Waffle House" ...located right in front of the hotel ...very reasonable!!
+The front desk personel and manager couldn't have been more helpful. I, yes me, had made a mistake on my reservation and accidentally made it for the night before we arrived. So when we arrived they couldn't locate our reservation, but did locate our missed night and associated charges. I talked with the manager, who in turned called the Manager to explain my situation and all charges were refunded and I was given a room at the rate I had booked online by mistake, for the previous night. 
+Very helpful and understanding!!!
+Most hotels would have just said...I always stay here when visiting Dallas/Addsion. The rooms are great, for the price paid, and the service is wonderful!! My room is always clean, and have never had a problem with this chain ...at this location ....or any location. The hotel is very easy to get in and out of, unlike some of the other hotels located on Beltline. This comes in VERY handy, especially during rush hours where Beltline can be stacked light to light. This Super 8 even has a traffic light right at the corner to make getting out even easier. It's right in the middle of the restaurant row area of Addison, so finding something to eat is never a problem, even if you are on foot. Even those on a small budget can enjoy "J's Waffle House" ...located right in front of the hotel ...very reasonable!!The front desk personel and manager couldn't have been more helpful. I, yes me, had made a mistake on my reservation and accidentally made it for the night before we arrived. So when we arrived they couldn't locate our reservation, but did locate our missed night and associated charges. I talked with the manager, who in turned called the Manager to explain my situation and all charges were refunded and I was given a room at the rate I had booked online by mistake, for the previous night. Very helpful and understanding!!!Most hotels would have just said "oh well" and pocketed my money, and then charged me for the night I needed. This Super 8 gives you more amenities for your money. They have a fridge right in the room and not just one of those tiny dorm ones either. It's one about twice that size, plus alarm clock, dresser, hangers, etc... I stayed at Motel 9 (wink) down the road on Beltline ...ended up paying more ...for way less. I had a heck of a time trying to get in and out of their place. They also had no dresser, no clock, no fridge, no hangers, cold hard floors, mattress on a platform with no box springs ...and these were touted as "newly remodeled rooms" .....HA!!!About the only down side would be that Super 8 is a little slower in the transistion to flat screen TV's than the rest, and I'm sure, in time, this WILL change ...In fact, I know it will.The TV they had worked fine ...it's just that once you go flat (at home) ....you don't want to go back ....lol. If you stay here in the summer, bring your swimsuit ...the pool was great and very relaxing, the one summer I did stay there.Btw ...I stay here at least once a year (except for the one Motel 9 accident) ...if not more.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r46017126-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>46017126</t>
+  </si>
+  <si>
+    <t>10/06/2009</t>
+  </si>
+  <si>
+    <t>Great value, great location</t>
+  </si>
+  <si>
+    <t>No frills hotel, just off the main strip in Addison.  Several restaurants are walkable - others are less than 5 min drive.  Room was large, clean, and quiet (although it appeared there were only a handful of guests).  AC worked well.My wife and I stayed there one night after watching a Cowboys game.  Highly recommend as a very cheap place to get a night's rest.  If you are vacationing or staying more than a few nights, then you might spend more money and look elsewhere.  For a cheap place to stay 1 night - excellent.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r26867359-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
+  </si>
+  <si>
+    <t>26867359</t>
+  </si>
+  <si>
+    <t>03/26/2009</t>
+  </si>
+  <si>
+    <t>Super value motel!</t>
+  </si>
+  <si>
+    <t>This was our second stay at Super 8 in Addison, TX.  Our room was super clean and nicely decorated.  It is nessled between some eateries and an upscale neighborhood.  It is right off what is called 'restaurant row' so there is every kind of food you could want.  It is located near the Dallas Gallaria.  We visited serveral places in the Dallas area and we found the location pretty central to all of them.  The breakfast consists of toast, cereal, muffins and sweet rolls.  Not the best spread but is adequate.  The only thing I could fault our room on is that is was a little small.  But for the price we paid it was great!  We will definately stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>Super8addison, GM at Super 8 by the Galleria / North Dallas, responded to this reviewResponded April 1, 2009</t>
+  </si>
+  <si>
+    <t>Responded April 1, 2009</t>
+  </si>
+  <si>
+    <t>This was our second stay at Super 8 in Addison, TX.  Our room was super clean and nicely decorated.  It is nessled between some eateries and an upscale neighborhood.  It is right off what is called 'restaurant row' so there is every kind of food you could want.  It is located near the Dallas Gallaria.  We visited serveral places in the Dallas area and we found the location pretty central to all of them.  The breakfast consists of toast, cereal, muffins and sweet rolls.  Not the best spread but is adequate.  The only thing I could fault our room on is that is was a little small.  But for the price we paid it was great!  We will definately stay there again.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2573,7133 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>3</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>72</v>
+      </c>
+      <c r="X4" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s"/>
+      <c r="L5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>80</v>
+      </c>
+      <c r="X5" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>84</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+      <c r="L6" t="s">
+        <v>87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>89</v>
+      </c>
+      <c r="X6" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>3</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>113</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" t="n">
+        <v>3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>119</v>
+      </c>
+      <c r="O10" t="s">
+        <v>106</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>120</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J11" t="s">
+        <v>122</v>
+      </c>
+      <c r="K11" t="s">
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>124</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>125</v>
+      </c>
+      <c r="O11" t="s">
+        <v>126</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>127</v>
+      </c>
+      <c r="X11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>131</v>
+      </c>
+      <c r="J12" t="s">
+        <v>132</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O12" t="s">
+        <v>113</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>134</v>
+      </c>
+      <c r="X12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>78</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>133</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>1</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>139</v>
+      </c>
+      <c r="X13" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>145</v>
+      </c>
+      <c r="X14" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>148</v>
+      </c>
+      <c r="J15" t="s">
+        <v>149</v>
+      </c>
+      <c r="K15" t="s"/>
+      <c r="L15" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>150</v>
+      </c>
+      <c r="X15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>152</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>153</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>154</v>
+      </c>
+      <c r="L16" t="s">
+        <v>155</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16" t="s">
+        <v>113</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>150</v>
+      </c>
+      <c r="X16" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
+      <c r="K17" t="s">
+        <v>160</v>
+      </c>
+      <c r="L17" t="s">
+        <v>161</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>162</v>
+      </c>
+      <c r="X17" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>165</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>166</v>
+      </c>
+      <c r="J18" t="s">
+        <v>167</v>
+      </c>
+      <c r="K18" t="s">
+        <v>168</v>
+      </c>
+      <c r="L18" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18" t="s">
+        <v>106</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>170</v>
+      </c>
+      <c r="X18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>173</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>174</v>
+      </c>
+      <c r="J19" t="s">
+        <v>175</v>
+      </c>
+      <c r="K19" t="s">
+        <v>176</v>
+      </c>
+      <c r="L19" t="s">
+        <v>177</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>178</v>
+      </c>
+      <c r="O19" t="s">
+        <v>126</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>179</v>
+      </c>
+      <c r="X19" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J20" t="s">
+        <v>184</v>
+      </c>
+      <c r="K20" t="s">
+        <v>185</v>
+      </c>
+      <c r="L20" t="s">
+        <v>186</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>187</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>188</v>
+      </c>
+      <c r="X20" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>191</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>192</v>
+      </c>
+      <c r="J21" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>126</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>194</v>
+      </c>
+      <c r="X21" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>106</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>199</v>
+      </c>
+      <c r="X22" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>206</v>
+      </c>
+      <c r="X23" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>209</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>210</v>
+      </c>
+      <c r="J24" t="s">
+        <v>211</v>
+      </c>
+      <c r="K24" t="s"/>
+      <c r="L24" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>212</v>
+      </c>
+      <c r="O24" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>206</v>
+      </c>
+      <c r="X24" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>212</v>
+      </c>
+      <c r="O25" t="s">
+        <v>113</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>206</v>
+      </c>
+      <c r="X25" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>220</v>
+      </c>
+      <c r="J26" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" t="s">
+        <v>223</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>224</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" t="n">
+        <v>3</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>225</v>
+      </c>
+      <c r="X26" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>224</v>
+      </c>
+      <c r="O27" t="s">
+        <v>106</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>225</v>
+      </c>
+      <c r="X27" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" t="s">
+        <v>232</v>
+      </c>
+      <c r="K28" t="s"/>
+      <c r="L28" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>224</v>
+      </c>
+      <c r="O28" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>225</v>
+      </c>
+      <c r="X28" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>234</v>
+      </c>
+      <c r="J29" t="s">
+        <v>235</v>
+      </c>
+      <c r="K29" t="s">
+        <v>236</v>
+      </c>
+      <c r="L29" t="s">
+        <v>237</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>238</v>
+      </c>
+      <c r="O29" t="s">
+        <v>113</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>239</v>
+      </c>
+      <c r="X29" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>243</v>
+      </c>
+      <c r="J30" t="s">
+        <v>244</v>
+      </c>
+      <c r="K30" t="s">
+        <v>245</v>
+      </c>
+      <c r="L30" t="s">
+        <v>246</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>238</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>239</v>
+      </c>
+      <c r="X30" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>248</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>249</v>
+      </c>
+      <c r="J31" t="s">
+        <v>250</v>
+      </c>
+      <c r="K31" t="s">
+        <v>251</v>
+      </c>
+      <c r="L31" t="s">
+        <v>252</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>253</v>
+      </c>
+      <c r="O31" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>2</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>239</v>
+      </c>
+      <c r="X31" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" t="s">
+        <v>259</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>253</v>
+      </c>
+      <c r="O32" t="s">
+        <v>106</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>239</v>
+      </c>
+      <c r="X32" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>262</v>
+      </c>
+      <c r="J33" t="s">
+        <v>263</v>
+      </c>
+      <c r="K33" t="s">
+        <v>264</v>
+      </c>
+      <c r="L33" t="s">
+        <v>265</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>266</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>239</v>
+      </c>
+      <c r="X33" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>268</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>269</v>
+      </c>
+      <c r="J34" t="s">
+        <v>270</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>266</v>
+      </c>
+      <c r="O34" t="s">
+        <v>106</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>271</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>272</v>
+      </c>
+      <c r="J35" t="s">
+        <v>273</v>
+      </c>
+      <c r="K35" t="s">
+        <v>274</v>
+      </c>
+      <c r="L35" t="s">
+        <v>275</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>266</v>
+      </c>
+      <c r="O35" t="s">
+        <v>106</v>
+      </c>
+      <c r="P35" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>276</v>
+      </c>
+      <c r="X35" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" t="s">
+        <v>281</v>
+      </c>
+      <c r="K36" t="s">
+        <v>282</v>
+      </c>
+      <c r="L36" t="s">
+        <v>283</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>266</v>
+      </c>
+      <c r="O36" t="s">
+        <v>106</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>276</v>
+      </c>
+      <c r="X36" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>286</v>
+      </c>
+      <c r="J37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K37" t="s">
+        <v>288</v>
+      </c>
+      <c r="L37" t="s">
+        <v>289</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>290</v>
+      </c>
+      <c r="O37" t="s">
+        <v>106</v>
+      </c>
+      <c r="P37" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>2</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>291</v>
+      </c>
+      <c r="X37" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>294</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>295</v>
+      </c>
+      <c r="J38" t="s">
+        <v>296</v>
+      </c>
+      <c r="K38" t="s">
+        <v>297</v>
+      </c>
+      <c r="L38" t="s">
+        <v>298</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>299</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>300</v>
+      </c>
+      <c r="X38" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>303</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>304</v>
+      </c>
+      <c r="J39" t="s">
+        <v>305</v>
+      </c>
+      <c r="K39" t="s">
+        <v>306</v>
+      </c>
+      <c r="L39" t="s">
+        <v>307</v>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="s">
+        <v>299</v>
+      </c>
+      <c r="O39" t="s">
+        <v>113</v>
+      </c>
+      <c r="P39" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>2</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>2</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>300</v>
+      </c>
+      <c r="X39" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>310</v>
+      </c>
+      <c r="J40" t="s">
+        <v>311</v>
+      </c>
+      <c r="K40" t="s">
+        <v>312</v>
+      </c>
+      <c r="L40" t="s">
+        <v>313</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>314</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>300</v>
+      </c>
+      <c r="X40" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>316</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>317</v>
+      </c>
+      <c r="J41" t="s">
+        <v>318</v>
+      </c>
+      <c r="K41" t="s">
+        <v>319</v>
+      </c>
+      <c r="L41" t="s">
+        <v>320</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>321</v>
+      </c>
+      <c r="O41" t="s">
+        <v>126</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>300</v>
+      </c>
+      <c r="X41" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>323</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J42" t="s">
+        <v>325</v>
+      </c>
+      <c r="K42" t="s">
+        <v>326</v>
+      </c>
+      <c r="L42" t="s">
+        <v>327</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>321</v>
+      </c>
+      <c r="O42" t="s">
+        <v>113</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>2</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>300</v>
+      </c>
+      <c r="X42" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>329</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>330</v>
+      </c>
+      <c r="J43" t="s">
+        <v>331</v>
+      </c>
+      <c r="K43" t="s"/>
+      <c r="L43" t="s">
+        <v>78</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>321</v>
+      </c>
+      <c r="O43" t="s">
+        <v>113</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>2</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>300</v>
+      </c>
+      <c r="X43" t="s">
+        <v>301</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>332</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>333</v>
+      </c>
+      <c r="J44" t="s">
+        <v>334</v>
+      </c>
+      <c r="K44" t="s"/>
+      <c r="L44" t="s">
+        <v>78</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s">
+        <v>335</v>
+      </c>
+      <c r="O44" t="s">
+        <v>126</v>
+      </c>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>336</v>
+      </c>
+      <c r="X44" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>338</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>339</v>
+      </c>
+      <c r="J45" t="s">
+        <v>340</v>
+      </c>
+      <c r="K45" t="s"/>
+      <c r="L45" t="s">
+        <v>78</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>335</v>
+      </c>
+      <c r="O45" t="s">
+        <v>106</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>3</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>2</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>341</v>
+      </c>
+      <c r="X45" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>343</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>344</v>
+      </c>
+      <c r="J46" t="s">
+        <v>345</v>
+      </c>
+      <c r="K46" t="s">
+        <v>346</v>
+      </c>
+      <c r="L46" t="s">
+        <v>347</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>348</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>336</v>
+      </c>
+      <c r="X46" t="s">
+        <v>337</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>350</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>351</v>
+      </c>
+      <c r="J47" t="s">
+        <v>352</v>
+      </c>
+      <c r="K47" t="s"/>
+      <c r="L47" t="s">
+        <v>78</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>353</v>
+      </c>
+      <c r="O47" t="s">
+        <v>113</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>341</v>
+      </c>
+      <c r="X47" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>354</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>355</v>
+      </c>
+      <c r="J48" t="s">
+        <v>352</v>
+      </c>
+      <c r="K48" t="s">
+        <v>356</v>
+      </c>
+      <c r="L48" t="s">
+        <v>357</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>358</v>
+      </c>
+      <c r="O48" t="s">
+        <v>79</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>341</v>
+      </c>
+      <c r="X48" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>360</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>361</v>
+      </c>
+      <c r="J49" t="s">
+        <v>362</v>
+      </c>
+      <c r="K49" t="s">
+        <v>363</v>
+      </c>
+      <c r="L49" t="s">
+        <v>364</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" t="s">
+        <v>353</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>341</v>
+      </c>
+      <c r="X49" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>366</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>367</v>
+      </c>
+      <c r="J50" t="s">
+        <v>368</v>
+      </c>
+      <c r="K50" t="s"/>
+      <c r="L50" t="s">
+        <v>78</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>369</v>
+      </c>
+      <c r="O50" t="s">
+        <v>106</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>341</v>
+      </c>
+      <c r="X50" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>370</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>371</v>
+      </c>
+      <c r="J51" t="s">
+        <v>372</v>
+      </c>
+      <c r="K51" t="s">
+        <v>373</v>
+      </c>
+      <c r="L51" t="s">
+        <v>374</v>
+      </c>
+      <c r="M51" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" t="s">
+        <v>369</v>
+      </c>
+      <c r="O51" t="s">
+        <v>106</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>3</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>375</v>
+      </c>
+      <c r="X51" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>378</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>379</v>
+      </c>
+      <c r="J52" t="s">
+        <v>380</v>
+      </c>
+      <c r="K52" t="s"/>
+      <c r="L52" t="s">
+        <v>78</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>369</v>
+      </c>
+      <c r="O52" t="s">
+        <v>126</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>375</v>
+      </c>
+      <c r="X52" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>381</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>382</v>
+      </c>
+      <c r="J53" t="s">
+        <v>383</v>
+      </c>
+      <c r="K53" t="s">
+        <v>384</v>
+      </c>
+      <c r="L53" t="s">
+        <v>385</v>
+      </c>
+      <c r="M53" t="n">
+        <v>2</v>
+      </c>
+      <c r="N53" t="s">
+        <v>386</v>
+      </c>
+      <c r="O53" t="s">
+        <v>113</v>
+      </c>
+      <c r="P53" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>2</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>375</v>
+      </c>
+      <c r="X53" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>388</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>389</v>
+      </c>
+      <c r="J54" t="s">
+        <v>390</v>
+      </c>
+      <c r="K54" t="s">
+        <v>391</v>
+      </c>
+      <c r="L54" t="s">
+        <v>392</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>358</v>
+      </c>
+      <c r="O54" t="s">
+        <v>106</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>375</v>
+      </c>
+      <c r="X54" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>394</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>395</v>
+      </c>
+      <c r="J55" t="s">
+        <v>396</v>
+      </c>
+      <c r="K55" t="s">
+        <v>397</v>
+      </c>
+      <c r="L55" t="s">
+        <v>398</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>399</v>
+      </c>
+      <c r="O55" t="s">
+        <v>79</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>375</v>
+      </c>
+      <c r="X55" t="s">
+        <v>376</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>401</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>402</v>
+      </c>
+      <c r="J56" t="s">
+        <v>403</v>
+      </c>
+      <c r="K56" t="s">
+        <v>404</v>
+      </c>
+      <c r="L56" t="s">
+        <v>405</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
+        <v>358</v>
+      </c>
+      <c r="O56" t="s">
+        <v>106</v>
+      </c>
+      <c r="P56" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>406</v>
+      </c>
+      <c r="X56" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>409</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>410</v>
+      </c>
+      <c r="J57" t="s">
+        <v>411</v>
+      </c>
+      <c r="K57" t="s">
+        <v>412</v>
+      </c>
+      <c r="L57" t="s">
+        <v>413</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>414</v>
+      </c>
+      <c r="O57" t="s">
+        <v>106</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>406</v>
+      </c>
+      <c r="X57" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>416</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>417</v>
+      </c>
+      <c r="J58" t="s">
+        <v>418</v>
+      </c>
+      <c r="K58" t="s"/>
+      <c r="L58" t="s">
+        <v>78</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="s">
+        <v>414</v>
+      </c>
+      <c r="O58" t="s">
+        <v>113</v>
+      </c>
+      <c r="P58" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>406</v>
+      </c>
+      <c r="X58" t="s">
+        <v>407</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>419</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>420</v>
+      </c>
+      <c r="J59" t="s">
+        <v>421</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>399</v>
+      </c>
+      <c r="O59" t="s">
+        <v>113</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>422</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>423</v>
+      </c>
+      <c r="J60" t="s">
+        <v>424</v>
+      </c>
+      <c r="K60" t="s">
+        <v>425</v>
+      </c>
+      <c r="L60" t="s">
+        <v>426</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>427</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>429</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>430</v>
+      </c>
+      <c r="J61" t="s">
+        <v>431</v>
+      </c>
+      <c r="K61" t="s">
+        <v>432</v>
+      </c>
+      <c r="L61" t="s">
+        <v>433</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>434</v>
+      </c>
+      <c r="O61" t="s">
+        <v>79</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>435</v>
+      </c>
+      <c r="X61" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>438</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>439</v>
+      </c>
+      <c r="J62" t="s">
+        <v>440</v>
+      </c>
+      <c r="K62" t="s">
+        <v>441</v>
+      </c>
+      <c r="L62" t="s">
+        <v>442</v>
+      </c>
+      <c r="M62" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" t="s">
+        <v>443</v>
+      </c>
+      <c r="O62" t="s">
+        <v>106</v>
+      </c>
+      <c r="P62" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>2</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>3</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>444</v>
+      </c>
+      <c r="X62" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>447</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>448</v>
+      </c>
+      <c r="J63" t="s">
+        <v>449</v>
+      </c>
+      <c r="K63" t="s"/>
+      <c r="L63" t="s">
+        <v>78</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>450</v>
+      </c>
+      <c r="O63" t="s">
+        <v>113</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>451</v>
+      </c>
+      <c r="X63" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>453</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>454</v>
+      </c>
+      <c r="J64" t="s">
+        <v>455</v>
+      </c>
+      <c r="K64" t="s">
+        <v>456</v>
+      </c>
+      <c r="L64" t="s">
+        <v>457</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>458</v>
+      </c>
+      <c r="O64" t="s">
+        <v>79</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>459</v>
+      </c>
+      <c r="X64" t="s">
+        <v>460</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>462</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>463</v>
+      </c>
+      <c r="J65" t="s">
+        <v>464</v>
+      </c>
+      <c r="K65" t="s"/>
+      <c r="L65" t="s">
+        <v>78</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>465</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>3</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>466</v>
+      </c>
+      <c r="X65" t="s">
+        <v>467</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>468</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>469</v>
+      </c>
+      <c r="J66" t="s">
+        <v>470</v>
+      </c>
+      <c r="K66" t="s">
+        <v>471</v>
+      </c>
+      <c r="L66" t="s">
+        <v>472</v>
+      </c>
+      <c r="M66" t="n">
+        <v>3</v>
+      </c>
+      <c r="N66" t="s">
+        <v>473</v>
+      </c>
+      <c r="O66" t="s">
+        <v>106</v>
+      </c>
+      <c r="P66" t="s"/>
+      <c r="Q66" t="s"/>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>474</v>
+      </c>
+      <c r="X66" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>477</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>478</v>
+      </c>
+      <c r="J67" t="s">
+        <v>479</v>
+      </c>
+      <c r="K67" t="s"/>
+      <c r="L67" t="s">
+        <v>78</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>473</v>
+      </c>
+      <c r="O67" t="s">
+        <v>106</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>474</v>
+      </c>
+      <c r="X67" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>480</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>481</v>
+      </c>
+      <c r="J68" t="s">
+        <v>482</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>483</v>
+      </c>
+      <c r="O68" t="s">
+        <v>113</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>484</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>485</v>
+      </c>
+      <c r="J69" t="s">
+        <v>482</v>
+      </c>
+      <c r="K69" t="s"/>
+      <c r="L69" t="s">
+        <v>78</v>
+      </c>
+      <c r="M69" t="n">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
+        <v>483</v>
+      </c>
+      <c r="O69" t="s">
+        <v>106</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>486</v>
+      </c>
+      <c r="X69" t="s">
+        <v>487</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>488</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>489</v>
+      </c>
+      <c r="J70" t="s">
+        <v>490</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s">
+        <v>78</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>483</v>
+      </c>
+      <c r="O70" t="s">
+        <v>106</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>491</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>492</v>
+      </c>
+      <c r="J71" t="s">
+        <v>493</v>
+      </c>
+      <c r="K71" t="s"/>
+      <c r="L71" t="s"/>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>494</v>
+      </c>
+      <c r="O71" t="s">
+        <v>113</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>495</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>496</v>
+      </c>
+      <c r="J72" t="s">
+        <v>497</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s">
+        <v>78</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>494</v>
+      </c>
+      <c r="O72" t="s">
+        <v>79</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>498</v>
+      </c>
+      <c r="X72" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>500</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>501</v>
+      </c>
+      <c r="J73" t="s">
+        <v>502</v>
+      </c>
+      <c r="K73" t="s"/>
+      <c r="L73" t="s">
+        <v>78</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>494</v>
+      </c>
+      <c r="O73" t="s">
+        <v>79</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>498</v>
+      </c>
+      <c r="X73" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>503</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>504</v>
+      </c>
+      <c r="J74" t="s">
+        <v>505</v>
+      </c>
+      <c r="K74" t="s">
+        <v>506</v>
+      </c>
+      <c r="L74" t="s">
+        <v>507</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1</v>
+      </c>
+      <c r="N74" t="s">
+        <v>508</v>
+      </c>
+      <c r="O74" t="s">
+        <v>79</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>1</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>1</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>509</v>
+      </c>
+      <c r="X74" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>512</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>513</v>
+      </c>
+      <c r="J75" t="s">
+        <v>514</v>
+      </c>
+      <c r="K75" t="s"/>
+      <c r="L75" t="s">
+        <v>78</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>508</v>
+      </c>
+      <c r="O75" t="s">
+        <v>113</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>509</v>
+      </c>
+      <c r="X75" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>515</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>516</v>
+      </c>
+      <c r="J76" t="s">
+        <v>517</v>
+      </c>
+      <c r="K76" t="s">
+        <v>518</v>
+      </c>
+      <c r="L76" t="s">
+        <v>519</v>
+      </c>
+      <c r="M76" t="n">
+        <v>2</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>1</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>1</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>498</v>
+      </c>
+      <c r="X76" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>521</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>522</v>
+      </c>
+      <c r="J77" t="s">
+        <v>523</v>
+      </c>
+      <c r="K77" t="s">
+        <v>524</v>
+      </c>
+      <c r="L77" t="s">
+        <v>525</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="s">
+        <v>526</v>
+      </c>
+      <c r="O77" t="s">
+        <v>113</v>
+      </c>
+      <c r="P77" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>1</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>1</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>498</v>
+      </c>
+      <c r="X77" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>528</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>529</v>
+      </c>
+      <c r="J78" t="s">
+        <v>530</v>
+      </c>
+      <c r="K78" t="s">
+        <v>531</v>
+      </c>
+      <c r="L78" t="s">
+        <v>532</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s">
+        <v>533</v>
+      </c>
+      <c r="O78" t="s">
+        <v>79</v>
+      </c>
+      <c r="P78" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>1</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>498</v>
+      </c>
+      <c r="X78" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>535</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>536</v>
+      </c>
+      <c r="J79" t="s">
+        <v>537</v>
+      </c>
+      <c r="K79" t="s"/>
+      <c r="L79" t="s">
+        <v>78</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>538</v>
+      </c>
+      <c r="O79" t="s">
+        <v>106</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>498</v>
+      </c>
+      <c r="X79" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>539</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>540</v>
+      </c>
+      <c r="J80" t="s">
+        <v>541</v>
+      </c>
+      <c r="K80" t="s">
+        <v>542</v>
+      </c>
+      <c r="L80" t="s">
+        <v>543</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>538</v>
+      </c>
+      <c r="O80" t="s">
+        <v>113</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>544</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>545</v>
+      </c>
+      <c r="J81" t="s">
+        <v>546</v>
+      </c>
+      <c r="K81" t="s"/>
+      <c r="L81" t="s">
+        <v>78</v>
+      </c>
+      <c r="M81" t="n">
+        <v>3</v>
+      </c>
+      <c r="N81" t="s">
+        <v>538</v>
+      </c>
+      <c r="O81" t="s">
+        <v>106</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>3</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>498</v>
+      </c>
+      <c r="X81" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>547</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>548</v>
+      </c>
+      <c r="J82" t="s">
+        <v>549</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>550</v>
+      </c>
+      <c r="O82" t="s">
+        <v>113</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>551</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>552</v>
+      </c>
+      <c r="J83" t="s">
+        <v>553</v>
+      </c>
+      <c r="K83" t="s">
+        <v>554</v>
+      </c>
+      <c r="L83" t="s">
+        <v>555</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>556</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>3</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>557</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>558</v>
+      </c>
+      <c r="J84" t="s">
+        <v>559</v>
+      </c>
+      <c r="K84" t="s"/>
+      <c r="L84" t="s">
+        <v>78</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="s">
+        <v>556</v>
+      </c>
+      <c r="O84" t="s">
+        <v>106</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>1</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>1</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>1</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>498</v>
+      </c>
+      <c r="X84" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>560</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>561</v>
+      </c>
+      <c r="J85" t="s">
+        <v>562</v>
+      </c>
+      <c r="K85" t="s">
+        <v>563</v>
+      </c>
+      <c r="L85" t="s">
+        <v>564</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>565</v>
+      </c>
+      <c r="O85" t="s">
+        <v>113</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>566</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>567</v>
+      </c>
+      <c r="J86" t="s">
+        <v>568</v>
+      </c>
+      <c r="K86" t="s">
+        <v>569</v>
+      </c>
+      <c r="L86" t="s">
+        <v>570</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1</v>
+      </c>
+      <c r="N86" t="s">
+        <v>571</v>
+      </c>
+      <c r="O86" t="s">
+        <v>126</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>1</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>1</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>498</v>
+      </c>
+      <c r="X86" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>573</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>574</v>
+      </c>
+      <c r="J87" t="s">
+        <v>575</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>576</v>
+      </c>
+      <c r="O87" t="s">
+        <v>113</v>
+      </c>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>577</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>578</v>
+      </c>
+      <c r="J88" t="s">
+        <v>579</v>
+      </c>
+      <c r="K88" t="s"/>
+      <c r="L88" t="s"/>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>580</v>
+      </c>
+      <c r="O88" t="s">
+        <v>113</v>
+      </c>
+      <c r="P88" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>2</v>
+      </c>
+      <c r="R88" t="n">
+        <v>3</v>
+      </c>
+      <c r="S88" t="n">
+        <v>2</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>3</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>581</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>582</v>
+      </c>
+      <c r="J89" t="s">
+        <v>583</v>
+      </c>
+      <c r="K89" t="s">
+        <v>584</v>
+      </c>
+      <c r="L89" t="s">
+        <v>585</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>586</v>
+      </c>
+      <c r="O89" t="s">
+        <v>113</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>588</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>589</v>
+      </c>
+      <c r="J90" t="s">
+        <v>590</v>
+      </c>
+      <c r="K90" t="s">
+        <v>591</v>
+      </c>
+      <c r="L90" t="s">
+        <v>592</v>
+      </c>
+      <c r="M90" t="n">
+        <v>3</v>
+      </c>
+      <c r="N90" t="s">
+        <v>593</v>
+      </c>
+      <c r="O90" t="s">
+        <v>79</v>
+      </c>
+      <c r="P90" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>594</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>595</v>
+      </c>
+      <c r="J91" t="s">
+        <v>596</v>
+      </c>
+      <c r="K91" t="s"/>
+      <c r="L91" t="s"/>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>586</v>
+      </c>
+      <c r="O91" t="s">
+        <v>113</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>597</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>598</v>
+      </c>
+      <c r="J92" t="s">
+        <v>599</v>
+      </c>
+      <c r="K92" t="s"/>
+      <c r="L92" t="s">
+        <v>78</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s">
+        <v>593</v>
+      </c>
+      <c r="O92" t="s">
+        <v>113</v>
+      </c>
+      <c r="P92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>2</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>3</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>498</v>
+      </c>
+      <c r="X92" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>600</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>601</v>
+      </c>
+      <c r="J93" t="s">
+        <v>602</v>
+      </c>
+      <c r="K93" t="s"/>
+      <c r="L93" t="s"/>
+      <c r="M93" t="n">
+        <v>3</v>
+      </c>
+      <c r="N93" t="s">
+        <v>593</v>
+      </c>
+      <c r="O93" t="s">
+        <v>79</v>
+      </c>
+      <c r="P93" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>4</v>
+      </c>
+      <c r="S93" t="n">
+        <v>3</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>3</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>603</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>604</v>
+      </c>
+      <c r="J94" t="s">
+        <v>602</v>
+      </c>
+      <c r="K94" t="s"/>
+      <c r="L94" t="s"/>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>593</v>
+      </c>
+      <c r="O94" t="s">
+        <v>53</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>605</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>606</v>
+      </c>
+      <c r="J95" t="s">
+        <v>607</v>
+      </c>
+      <c r="K95" t="s">
+        <v>608</v>
+      </c>
+      <c r="L95" t="s">
+        <v>609</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>610</v>
+      </c>
+      <c r="O95" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>611</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>612</v>
+      </c>
+      <c r="J96" t="s">
+        <v>613</v>
+      </c>
+      <c r="K96" t="s">
+        <v>614</v>
+      </c>
+      <c r="L96" t="s">
+        <v>615</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>616</v>
+      </c>
+      <c r="O96" t="s">
+        <v>113</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>4</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>617</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>618</v>
+      </c>
+      <c r="J97" t="s">
+        <v>619</v>
+      </c>
+      <c r="K97" t="s">
+        <v>620</v>
+      </c>
+      <c r="L97" t="s">
+        <v>621</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>616</v>
+      </c>
+      <c r="O97" t="s">
+        <v>106</v>
+      </c>
+      <c r="P97" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>623</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>624</v>
+      </c>
+      <c r="J98" t="s">
+        <v>625</v>
+      </c>
+      <c r="K98" t="s">
+        <v>626</v>
+      </c>
+      <c r="L98" t="s">
+        <v>627</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>628</v>
+      </c>
+      <c r="O98" t="s">
+        <v>106</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>4</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>630</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>631</v>
+      </c>
+      <c r="J99" t="s">
+        <v>632</v>
+      </c>
+      <c r="K99" t="s">
+        <v>633</v>
+      </c>
+      <c r="L99" t="s">
+        <v>634</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s">
+        <v>635</v>
+      </c>
+      <c r="O99" t="s">
+        <v>53</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>3</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>3</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>636</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>637</v>
+      </c>
+      <c r="J100" t="s">
+        <v>638</v>
+      </c>
+      <c r="K100" t="s">
+        <v>639</v>
+      </c>
+      <c r="L100" t="s">
+        <v>640</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>641</v>
+      </c>
+      <c r="O100" t="s">
+        <v>79</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>642</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>643</v>
+      </c>
+      <c r="J101" t="s">
+        <v>644</v>
+      </c>
+      <c r="K101" t="s">
+        <v>645</v>
+      </c>
+      <c r="L101" t="s">
+        <v>646</v>
+      </c>
+      <c r="M101" t="n">
+        <v>5</v>
+      </c>
+      <c r="N101" t="s">
+        <v>647</v>
+      </c>
+      <c r="O101" t="s">
+        <v>113</v>
+      </c>
+      <c r="P101" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="s"/>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>648</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>649</v>
+      </c>
+      <c r="J102" t="s">
+        <v>650</v>
+      </c>
+      <c r="K102" t="s">
+        <v>651</v>
+      </c>
+      <c r="L102" t="s">
+        <v>652</v>
+      </c>
+      <c r="M102" t="n">
+        <v>4</v>
+      </c>
+      <c r="N102" t="s">
+        <v>653</v>
+      </c>
+      <c r="O102" t="s">
+        <v>53</v>
+      </c>
+      <c r="P102" t="s"/>
+      <c r="Q102" t="s"/>
+      <c r="R102" t="s"/>
+      <c r="S102" t="s"/>
+      <c r="T102" t="s"/>
+      <c r="U102" t="s"/>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>654</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>655</v>
+      </c>
+      <c r="J103" t="s">
+        <v>656</v>
+      </c>
+      <c r="K103" t="s">
+        <v>657</v>
+      </c>
+      <c r="L103" t="s">
+        <v>658</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>647</v>
+      </c>
+      <c r="O103" t="s">
+        <v>79</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="s"/>
+      <c r="R103" t="s"/>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>2</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>659</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>660</v>
+      </c>
+      <c r="J104" t="s">
+        <v>661</v>
+      </c>
+      <c r="K104" t="s">
+        <v>662</v>
+      </c>
+      <c r="L104" t="s">
+        <v>663</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>664</v>
+      </c>
+      <c r="O104" t="s">
+        <v>79</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>4</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>666</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>667</v>
+      </c>
+      <c r="J105" t="s">
+        <v>668</v>
+      </c>
+      <c r="K105" t="s">
+        <v>669</v>
+      </c>
+      <c r="L105" t="s">
+        <v>670</v>
+      </c>
+      <c r="M105" t="n">
+        <v>3</v>
+      </c>
+      <c r="N105" t="s">
+        <v>671</v>
+      </c>
+      <c r="O105" t="s">
+        <v>79</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="n">
+        <v>4</v>
+      </c>
+      <c r="S105" t="n">
+        <v>4</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>3</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>21027</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>672</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>673</v>
+      </c>
+      <c r="J106" t="s">
+        <v>674</v>
+      </c>
+      <c r="K106" t="s">
+        <v>675</v>
+      </c>
+      <c r="L106" t="s">
+        <v>676</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5</v>
+      </c>
+      <c r="N106" t="s">
+        <v>677</v>
+      </c>
+      <c r="O106" t="s">
+        <v>106</v>
+      </c>
+      <c r="P106" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>5</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>5</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s">
+        <v>678</v>
+      </c>
+      <c r="X106" t="s">
+        <v>679</v>
+      </c>
+      <c r="Y106" t="s">
+        <v>680</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_726.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_726.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="783">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Loukisha T</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Only stayed one night, nothing like I thought, doesn't look as pictured, &amp; not to far but also not to close to the Galleria Mall as I thought it would be.  The rooms need to be remodeled. Need new carpet &amp; furniture in rooms  More</t>
   </si>
   <si>
+    <t>richardhG9867SS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r555628788-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>The service was satisfactory and the continental breakfast was pretty good. Other than that I was pretty disappointed. The condition of the room was very bad. There were holes in the wall and dents in the door where it looks like someone had a fit. The quality of the cable was really bad. Based on those things I was concerned on my safety in the room.More</t>
   </si>
   <si>
+    <t>Wanda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r555259358-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>I almost gave a one star but but I have to give credit for the friendly staff; there are situations beyond their control. The pluses - friendly staff, clean and comfortable bed.  Very good breakfast.The negatives- broken faucet in the bathroom shower which prevented the water from coming on.  The carpeting was gross.  I was afraid to walk barefoot.  There was a hole in the bathroom door  That looked like the door had been kicked in.More</t>
   </si>
   <si>
+    <t>Double D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r546731501-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -267,6 +279,9 @@
     <t>More</t>
   </si>
   <si>
+    <t>418492</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r542313646-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -292,6 +307,9 @@
   </si>
   <si>
     <t>Forgot wake up call on two days; breakfast area dirty; food not replaced before ending time; lhotel looks old; hot water in sink didn't workMore</t>
+  </si>
+  <si>
+    <t>Clint A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r539559002-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
@@ -324,6 +342,9 @@
 I rented an “upgraded” King suite with a sofa bed. I honestly wasn’t expecting extreme luxury as this was Super 8 and the price was under $70. But with words like “upgraded” and “suite” I expected a nicely appointed room and something that was upgraded. When I opened my door, I realized that it was likely updated back in the 1990’s, except for the television.  The carpet was well-worn and the seam near the bathroom had split....To be honest, I think that most reviewers are a little harsher than myself; resulting in my occasional dismissal of reviews that seem to be exaggerated or when the reviewer seemed to have unrealistic expectations of the establishment.  So, when I saw that there were reviews that said things like “room serviced every-other-day at best” and then a response from management, I thought maybe it was just a bunch of complainers.I’m sorry, fellow reviewers.The person who checked me in was attentive and courteous and so the check-in process was fast. There was some lengthy explanation about whether I wanted the same card that would pay the bill to cover the deposit as well ($50) and another deposit of $1 for the key. Sure, use the same card. Strange, though, that you collect a key deposit. I know a couple of other hotels that are charging if the key isn’t returned, but congratulations on being the first to charge me up front.I rented an “upgraded” King suite with a sofa bed. I honestly wasn’t expecting extreme luxury as this was Super 8 and the price was under $70. But with words like “upgraded” and “suite” I expected a nicely appointed room and something that was upgraded. When I opened my door, I realized that it was likely updated back in the 1990’s, except for the television.  The carpet was well-worn and the seam near the bathroom had split. The wallpaper border throughout the room was warped and peeling. The bathroom is old and worn and the tub stained and towel rack hanging half off the wall.The bathroom was missing the ‘floor towel’ and soap for the shower, not a great impression for housekeeping. As with other reviewers, after my first night, there was no service. The maid did come after the second night, and after the third I’m checking out so let’s hope for the best.In fairness, everything functioned and the bed was comfortable enough to get some sleep. The shower was a little difficult to operate as it pulls out toward you and I felt like I needed to pull hard enough to yank it out of the wall. The television worked and had ample channels and the wi-fi worked quite well for me. It seems the windows are new and the locks also seem modern and functioned well. The air conditioner worked well and was quiet.The breakfast is the typical Super 8 fare of waffles, a few pieces of fruit, a single yogurt on ice, and some toast. The room is very small but it was never busy.What really sealed my dislike of the hotel, though, is the fact that the $51 in deposits were not a hold, but an actual charge that will now need to be refunded. Additionally, the hotel sends a representative at check out to determine if you’ve damaged the room! I was also pretty disappointed that when I asked the front desk clerk if they knew of any fitness centers that guests could use (even if for a fee), he looked at me like I was from another planet and seemed like he didn’t really care. You would think this is information they would keep on hand.I expect to return for next year’s conference. I won’t be selecting this property, even though I liked the location. I felt safe and always could find a space right next to my room … after all, when the hotel is this bad and the reviews show it, there’s plenty of parking. Who knows? This Super 8 might be out of business in a year if they don’t start making changes.More</t>
   </si>
   <si>
+    <t>jameswF4573XT</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r531535148-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -354,6 +375,9 @@
     <t>This place had some serious issues. First the room was not nice. There was holes in the sink. Hair in the sink. Bathroom counter was broken and falling down. Tiles in bathroom were dirty. Only had 2 towels and washcloths. No pressure in shower. TV was full of static.  More</t>
   </si>
   <si>
+    <t>jasminesO6071JS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r527611978-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -372,6 +396,9 @@
     <t>Responded October 4, 2017</t>
   </si>
   <si>
+    <t>195delisas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r519497059-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -384,6 +411,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>donica79</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r504926833-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -414,6 +444,9 @@
     <t>Never again will I stay here! Walked in and it smelled like weed! Turned ac on and noticed half a blunt sitting on the ac! Told mgmt and they just said they would go retrieve the blunt and spray the room with air freshener! Sat on the bed and noticed hair all over it as well as under the covers and pillow cases! Restroom had the same hair problem, on the floor and in the tub! Shower water did not get hot at all, it was barely warm! Horrible stay, will not ever return!More</t>
   </si>
   <si>
+    <t>gotabeda1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r495173883-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -432,6 +465,9 @@
     <t>Responded June 26, 2017</t>
   </si>
   <si>
+    <t>odomm2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r492249807-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -447,6 +483,9 @@
     <t>Responded June 14, 2017</t>
   </si>
   <si>
+    <t>F8754UTjonathanm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r471436023-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -465,6 +504,9 @@
     <t>Responded March 31, 2017</t>
   </si>
   <si>
+    <t>robertwN2432AW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r470867556-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -480,6 +522,9 @@
     <t>Responded March 29, 2017</t>
   </si>
   <si>
+    <t>680paulines</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r470842295-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -495,6 +540,9 @@
     <t>Was very satisfied with my entire stay, from check in to leaving I had a total of 2 days was treated beyond what I would of thought, you could not beat the rates. Will definitely stay again, More</t>
   </si>
   <si>
+    <t>Fedencicio G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r469100505-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -519,6 +567,9 @@
     <t>this place was not worth the money I spent on it.The room smelled funny, the shower would not work at first. The breakfast is a joke. when I got there they had One banana and it looked like someone had tried to open it and put it back. The bread they had for toast was old and hard. I will not stay at this property again. Actually I might not stay at another Super 8 property.More</t>
   </si>
   <si>
+    <t>LidaVang</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r468433933-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -543,6 +594,9 @@
     <t>My husband booked two rooms and checked in but never went inside. I was flying from out of state to visit him since he is in the army. We got to the room, and I never expected to experience with such amenities like this. The cover sheet had a cigarette burn hole, the carpet had an iron burn print, the bathroom door- someone punch it, one of the drawer had a broken piece with a missing handle. I took pictures of the room as proof since we didn't do anything to it. We didn't even stay in the room for more than 5 minutes, and packed our stuff and left. We got to the front desk and I told the front desk worker about the room and how we weren't going to stay but would like a refund. He refuse to give us a refund since he said they don't do refund and he is just a part time worker. I told him I work in the hospitality industry as well, and I know what to do when a guest isn't please and want to check out. He said since this is an individual own and operated, they have the right to not refund. All he could do was offer us a better room since they are still under renovation. Wtf??!! I work at one as well, and I never been so mad with the service provide and if you...My husband booked two rooms and checked in but never went inside. I was flying from out of state to visit him since he is in the army. We got to the room, and I never expected to experience with such amenities like this. The cover sheet had a cigarette burn hole, the carpet had an iron burn print, the bathroom door- someone punch it, one of the drawer had a broken piece with a missing handle. I took pictures of the room as proof since we didn't do anything to it. We didn't even stay in the room for more than 5 minutes, and packed our stuff and left. We got to the front desk and I told the front desk worker about the room and how we weren't going to stay but would like a refund. He refuse to give us a refund since he said they don't do refund and he is just a part time worker. I told him I work in the hospitality industry as well, and I know what to do when a guest isn't please and want to check out. He said since this is an individual own and operated, they have the right to not refund. All he could do was offer us a better room since they are still under renovation. Wtf??!! I work at one as well, and I never been so mad with the service provide and if you offering me a "better" room, why give us a room that is still under renovated?!! I asked to speak to the manager and he said there wasn't one until Monday and I could call in on Monday and talk to him about getting a refund and show him the pictures I took. Please, with this kind of service, guests will just leave and not return.More</t>
   </si>
   <si>
+    <t>Creolestunna</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r465164502-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -570,6 +624,9 @@
     <t>Had no problems staying here at this property. It's not The Hilton or The Ritz Carrollton but if you want a convenient place to stay in a central location of everything, this is where you would want to stay. Yea they are going into renovations right so I I overlook the wallpaper on the walls and stuff like that. Like I said Great location at a great price!!!!More</t>
   </si>
   <si>
+    <t>aaronsC3787AR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r449949302-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -597,6 +654,9 @@
     <t>This trip was terrible we had reserved our trip for the New Year's weekend. We walked into our room the smell of a old shed. Our towels were faded spots of yellow there were sticky film on the table burn holes in chairs. Dust everywhere above the beds and mirrors we then called the front desk and complained about the room and he said sorry as in it was just nothing. Then after talking with the front desk there was roaches crawling around. Second time we talked he sent maintenance to spray. He then told us to keep the drain plugged so roaches wouldn't crawl into the tub.... Gross!! So we then decided to get some rest we peeled back every sheet and looked for signs of other bugs glad to say there wasn't any.  Next morning we checked out one day into our three day weekend the front desk lady was not helpful and we were over charged for this horrible weekend stay. I'd never recommend anyone to stay here.More</t>
   </si>
   <si>
+    <t>reyanad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r448911092-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -612,6 +672,9 @@
     <t>Responded January 6, 2017</t>
   </si>
   <si>
+    <t>Jeana D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r447320089-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -627,6 +690,9 @@
     <t>Responded December 30, 2016</t>
   </si>
   <si>
+    <t>mariloub460</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r443787759-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -651,6 +717,9 @@
     <t>Great staff polite friendly always keep update if you rooms needs to be clean its safe i like to recommend this to someone else I definitely would come back again .More</t>
   </si>
   <si>
+    <t>Neil M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r442039592-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -663,6 +732,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>mikemL6660QQ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r439970864-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -681,6 +753,9 @@
     <t>The room had a strange smell - the wallpaper by the sink and bathroom was peeling off and there were two bugs crawling on the wall by the peeling wallpaper which was very disturbing - had to put all my things on table and slept with the lights on to avoid any hitchhikers in my bags - I've stayed at this motel for many years because of semi truck parking but it keeps getting worse and I don't know how much longer I can deal with it!!More</t>
   </si>
   <si>
+    <t>charles p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r427004721-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -708,12 +783,18 @@
     <t>Check in took a long time despite having reservations. In the room part of sink had rusted out and there were holes in the sink. Sometimes the light in the bathroom would go on, other times it would not.More</t>
   </si>
   <si>
+    <t>paulL2722PL</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r426986662-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
     <t>426986662</t>
   </si>
   <si>
+    <t>alicemS8103IR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r425621671-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -723,6 +804,9 @@
     <t>10/06/2016</t>
   </si>
   <si>
+    <t>8920scott</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r421558713-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -750,6 +834,9 @@
     <t>Dallas is a little high when it comes to over night stays.  This was the least expensive for me by Addison and it was near the Galleria Shops.  They are in the middle of redo so request away from areas being redone.   More</t>
   </si>
   <si>
+    <t>Plugin R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r418121261-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -768,6 +855,9 @@
     <t>Staff was very rude, but night and morning shift. Room that we stayed in was not cleaned properlyMore</t>
   </si>
   <si>
+    <t>nicolebV578NU</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r410088353-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -789,6 +879,9 @@
     <t>When we arrived, the bathroom light didn't work and there was no remote.  There was also a hole in the wall where they have stuffed with a washcloth. More</t>
   </si>
   <si>
+    <t>kingd17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r405994220-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -807,6 +900,9 @@
     <t>My daughter found women underwear in the bathroom as we checked in. The guy at the front desk name paddy told me I was the reason he lost a customer because someone who was gonna check in over heard me reporting it to him an walked out of the lobby. Police had to be called because they wouldn't let me take a pix of it. DO NOT!!!!!!!!!!STAY AT THIS HOTELMore</t>
   </si>
   <si>
+    <t>coolguy2050in</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r401509804-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -828,6 +924,9 @@
     <t>Very nice, located in the heart of Addison in Dallas. The front desk staff was very friendly and helpful. I liked the complementary breakfast that is served. My stay was very pleasant. Rooms are nice. Last but not least fits in BUDGET!!!More</t>
   </si>
   <si>
+    <t>govacations</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r400560095-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -837,6 +936,9 @@
     <t>08/02/2016</t>
   </si>
   <si>
+    <t>toniad37</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r393302977-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -861,6 +963,9 @@
     <t>The room was horrible beds were uncomfortable and bathroom not clean no hot water and carpet was dirty. I will not stay there again front desk terrible.More</t>
   </si>
   <si>
+    <t>lakinyat</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r390117398-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -879,6 +984,9 @@
     <t>There were signs of bugs I have pictures. Also I was bitten because whine they cleaned up they never checked he rooms to see if any bugs are there and a mosquito ate me up. I'm allergic so my left side of body is swollen. There was a Burt spot on the wall and a actual hole in the wall. The bathtub was not cleaned properly and more was the towels in the room.More</t>
   </si>
   <si>
+    <t>Tony201089</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r386513035-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1014,9 @@
     <t>Booked this hotel with points from one of my cc after reading some o f the reviews. We go there and just the check in office already was shady. Person wanted extra $20 because I was checking in before 2pm. I said no and he said no problem. Office smelled as my wife needed to step outside. Got the room and went we went upstairs you can see that this was not a room that you wanted to stay in, decor, beds etc were from 1970. We walked out and gave the keys back to the guy that was trying to switch my room to something better. We said no and drove off.More</t>
   </si>
   <si>
+    <t>Duke H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r378651287-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -933,6 +1044,9 @@
     <t>Convenient location, easy access, ample parking, clean room, comfortable bed, and helpful staff.This is an older property that is in much better shape now than it was a year ago. All I needed was a place to sleep and bathe. For a guy on a budget, this hotel hit the spot.More</t>
   </si>
   <si>
+    <t>Emile G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r374357142-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -951,6 +1065,9 @@
     <t>I was very dissatisfied with my stay. First, the front desk attendant was not there when I arrived and the door was locked. Next, the bathtub was stopped up and I had to stand in ankle deep water while taking a shower. Lastly, there were bugs in the bathroom. More</t>
   </si>
   <si>
+    <t>348emilyp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r367938579-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -972,6 +1089,9 @@
     <t>You definitely get what you pay for, old carpet, wallpaper coming off the walls, giant hole in the sink...I was fortunate enough to be put in a room full of BED BUGS. I have several bites on my arms, legs, and torso. Went to the front desk to address the situtation, only to be told off the bat "I'm not giving you a refund", so I asked to simply move rooms. When maintenance went in the room they found more bugs inside my pillow cases and under the comforter. Absolutely disgusting.More</t>
   </si>
   <si>
+    <t>Jennifer M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r361548465-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -993,6 +1113,9 @@
     <t>I was kind enough to reserve a room for an old friend of mine because you have to have a credit card online to do so. The reservation was for only one evening and I met my friend at the hotel to make sure he got checked in OK and he ended up paying cash comma on a technicality for that one evening because my credit card was on file if damages were done to the room or anything excessive I could have been held liable. I made it clear that I was not authorizing any other charges to be added to my card though. After that one evening my friend ended up staying longer at the location on his own accord paying cash. My name no longer had anything to do with those separate reservations. However comma somehow the hotel had managed to have a record of my credit card that I had used to place the reservation for the one night the previous week. I found this out because when he checked out they falsely accused him of damaging the room which this hotel is known for falsely accusing people of that when people complain against them and they used my card to pay for the damages. Somehow they illegally have the numbers from my credit card and charged my card. This is wrong in so many ways. My name should have had nothing to do with any...I was kind enough to reserve a room for an old friend of mine because you have to have a credit card online to do so. The reservation was for only one evening and I met my friend at the hotel to make sure he got checked in OK and he ended up paying cash comma on a technicality for that one evening because my credit card was on file if damages were done to the room or anything excessive I could have been held liable. I made it clear that I was not authorizing any other charges to be added to my card though. After that one evening my friend ended up staying longer at the location on his own accord paying cash. My name no longer had anything to do with those separate reservations. However comma somehow the hotel had managed to have a record of my credit card that I had used to place the reservation for the one night the previous week. I found this out because when he checked out they falsely accused him of damaging the room which this hotel is known for falsely accusing people of that when people complain against them and they used my card to pay for the damages. Somehow they illegally have the numbers from my credit card and charged my card. This is wrong in so many ways. My name should have had nothing to do with any of his other stays at this hotel due to the fact that I made a reservation checking in on March 20th checking out on 21st comma and he stays after that had nothing to do with my reservation. I have already filed a dispute against the charge with my credit card company but that doesn't seem to be enough to be quite honest with you because obtaining my credit card number to use it for fraudulent reasons is a whole nother issue in itselfMore</t>
   </si>
   <si>
+    <t>Figment O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r359333726-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1011,6 +1134,9 @@
     <t>The title alone should get the property's attention. Stayed in Room 109 for one night. Fairly clean room, old, but pretty standard for a Super 8. Noticed a small blood mark on the sheets the morning after a stay but didn't think much of it. Thought maybe I nicked a pimple or something. By that evening I had bite marks all over my body. Still wasn't sure it was bed bugs until the bites showed up on my wife. Spent the following week treating the itchy unsightly marks and making sure we didn't bring the little beasties home. We stay at several hotels a year and many of them are Super 8s. First ever incident of bed bugs. We feel violated. Very disappointed. Plan on taking pics to verify the incident.More</t>
   </si>
   <si>
+    <t>B C F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r358748934-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1020,6 +1146,9 @@
     <t>03/26/2016</t>
   </si>
   <si>
+    <t>Q201ZVjohnc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r351601249-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1038,6 +1167,9 @@
     <t>Responded March 7, 2016</t>
   </si>
   <si>
+    <t>marianner391</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r350171336-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1053,6 +1185,9 @@
     <t>Responded March 17, 2016</t>
   </si>
   <si>
+    <t>stevev623</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r341655847-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1074,6 +1209,9 @@
     <t>it was absolutely horrible. we paid for 3 nights up front, but woke up the first morning to a giant dead roach in the bathroom with an army of tiny ants crawling around it and feasting on it. I almost stepped on it in my bare feet. there were also ants crawling around the tub. we immediately packed up, called the corporate office, and demanded a refund. they only gave me a "goodwill gesture" of refunding my final 2 nights but wouldn't do anything about that first, and only, night I actually stayed, claiming that I slept there after all. So much for a satisfaction guarantee, by not refunding the night I shared with the roach or at least giving me a complimentary night at any other location in the future. Maybe the roach should pay for part of the room since he shared it with me. Don't ever stay at this place, or at any other Super 8 for that matter if that's how they deal with issues like this. we packed up and drove down the road to another motel and had a much better experience!More</t>
   </si>
   <si>
+    <t>Constance L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r327012035-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1224,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>Justin0111 M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r326992209-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1104,6 +1245,9 @@
     <t>This is the dirty place that kicked me and my wife out because of a bad review. With the "crowd " that uses this place its probably for the best that we didnt have to stay. Lock your cars and prepare for the late night crowd to harass you every time you open your door once it gets dark. Be careful More</t>
   </si>
   <si>
+    <t>Natwana T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r326415141-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1122,6 +1266,9 @@
     <t>This hotel is in need of alot of upgrades and better customer service! First, I placed in a room with a broken latch and was told no one could get me from the outside. After going back and forth about this, seeing I am a woman that is staying there alone! He finally sends a maintenance guy to check the lock. He changes my room. When he asked me to sign my paperwork,  he tried hiding what he wrote. It stated that room didn't have working hot water! I asked to change again,  but he claimed he just found out the broiler went out for the whole hotel! Mind you ut was 4 gentlemen ahead of me and it was no mention of hot water issues! I didn't have time to really argue to get my money back to go to another hotel cause the gentleman seemed not to care about the mess he had me go through! So after taking a cold shower and going to a show, come back to go to sleep,  woke up to bites on my arms and face! So yes go somewhere else! Don't even take a side chick, thot, or whatever else here! You better off sleeping in the car!More</t>
   </si>
   <si>
+    <t>rachelsC6545FG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r325189102-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1134,6 +1281,9 @@
     <t>October 2015</t>
   </si>
   <si>
+    <t>Barbara T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r323736856-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1158,6 +1308,9 @@
     <t>The upkeep on this property is ridiculous!  We stayed here over a year ago and thought maybe the little repairs that needed to be looked after would be by now. But not so.  It was just as bad at then.  The best thing was that the beds are clean, surprisingly.  The carpet is icky, the bedspreads are old and icky.  The chairs are so bad you don't want to sit down on them. The sink area is broken loose and at the seams and hang in disrepair.  No doubt where the coffee pot leaked water out because of the slant.  The linens in the bathroom are threadbare.  The ice machine still does not work.  Went to the lobby for coffee in the designated hours and not only no coffee, but no one around to talk to.  If we didn't have to be there on family medical emergency we would have left.  We would pay a higher price, but with the condition of the place we paid too much.More</t>
   </si>
   <si>
+    <t>rogerf597</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r320232682-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1167,6 +1320,9 @@
     <t>10/19/2015</t>
   </si>
   <si>
+    <t>Rebecca N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r296457032-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1188,6 +1344,9 @@
     <t>Overall the hotel had many issues. There was rotten decay on the walkways for the second floor. It was very dated in style. Carpet had something in it and it had turned extremely hard. Floor was dirty. The sink was cracked and chipped. The AC may funky noises all night long. And the TVs and furniture looked like it had been there for the last 10 maybe 15 years. So overall I give this very low rating it only gets a 2 star because I've stayed in worse. More</t>
   </si>
   <si>
+    <t>robertlr161</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r294845395-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1227,6 +1386,9 @@
     <t>I decided to try them again, big mistake. I set reservation on line and upon check in i wad told i am no longer allowed to stay at the propesrty  (prob after my last review). Again a joke. Ill never stay there again and tell everyone the sameMore</t>
   </si>
   <si>
+    <t>47review</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r286203463-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1251,6 +1413,9 @@
     <t>The only positive comment is the desk clerks were very nice especially Sharon. The building, room accommodations, and breakfast area were old and outdated. I will never stay at this hotel again.     More</t>
   </si>
   <si>
+    <t>sandikaxp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r284224945-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1272,6 +1437,9 @@
     <t>Definitely not for a family stay, for a individual on a road trip may be if your looking for a cheep stay ( I mean very cheep) ... but poor quality and cleanliness 2/10More</t>
   </si>
   <si>
+    <t>John R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r281708489-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1281,6 +1449,9 @@
     <t>06/20/2015</t>
   </si>
   <si>
+    <t>643sergeys</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r272888807-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1290,6 +1461,9 @@
     <t>05/18/2015</t>
   </si>
   <si>
+    <t>Jeffrey L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r260627396-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1311,6 +1485,9 @@
     <t>I had about a week to put in a reservation somewhere in the vicinity of a convention I was going to in a very hurried timeframe. I did not expect to be going anywhere that weekend, but it was something not too out of the way in which I could try and relax.The room was fine and the A/C worked perfectly. All the appropriate things such as towels, shampoo, soap, and the like were in place and the check in/check out process was quick and very friendly. I had almost wanted to stay another night just to relax a bit more, but other matters seemed more pressing than just sleeping in a room for rent. The only negative thing honestly was the carpet was not completely stapled to the floor, but for the price of the room the shower temperature and everything seemed to be in working order. Asking the front desk for an ATM, they were fairly knowledgeable of the area and were easy to talk to. I was also a fan of how close places there were for food and basic shopping essentials.More</t>
   </si>
   <si>
+    <t>Emilly K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r258338585-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1338,6 +1515,9 @@
     <t>The rooms were a great size, there was a couch and table set. Personal microwave and fridge in room too. Far enough from the office to feel comfortable, but not so far away as to feel distant. Only bad thing was that a couple of the other guests were smoking/talking outside our door (NOT THE HOTEL'S FAULT.) More</t>
   </si>
   <si>
+    <t>castrillonjuan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r246261342-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1365,6 +1545,9 @@
     <t>Breakfast very poor;bathroom tissue paper bad quality; pillows stink and are too tall ;coffee bad ; light bulbs out of work in the bathroom ; there is wi-fi available but doesn't work in the rooms...etc.  More</t>
   </si>
   <si>
+    <t>Jerry D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r238370682-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1410,6 +1593,9 @@
     <t>This hotel was a good place to stay until now. The hot water was off being fixed when my wife needed to shower to go to dinner. When we called the front desk we were told tough, we could check out!More</t>
   </si>
   <si>
+    <t>Jan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r222071257-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1428,6 +1614,9 @@
     <t>Responded September 22, 2014</t>
   </si>
   <si>
+    <t>VisitorToDallas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r219044501-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1455,6 +1644,9 @@
     <t>As one of the last reviewers mentioned, the bed was clean and comfortable, the AC worked, and the staff were friendly.  The only complaint I had was with the toilet- it only flushed well if the handle was held until the water began to drain and the noise was very loud.More</t>
   </si>
   <si>
+    <t>Gary B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r217864629-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1464,6 +1656,9 @@
     <t>07/27/2014</t>
   </si>
   <si>
+    <t>Randy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r199451345-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1476,6 +1671,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>Roland S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r199448759-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1488,6 +1686,9 @@
     <t>Responded April 15, 2014</t>
   </si>
   <si>
+    <t>David W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r199208566-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1497,6 +1698,9 @@
     <t>03/29/2014</t>
   </si>
   <si>
+    <t>Alivia R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r192711369-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1509,6 +1713,9 @@
     <t>January 2014</t>
   </si>
   <si>
+    <t>Melody K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r192497182-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1524,6 +1731,9 @@
     <t>Responded March 4, 2014</t>
   </si>
   <si>
+    <t>Rosemarie Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r190211339-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1533,6 +1743,9 @@
     <t>01/08/2014</t>
   </si>
   <si>
+    <t>Arnette T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r186382599-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1569,6 +1782,9 @@
     <t>11/29/2013</t>
   </si>
   <si>
+    <t>Whiterabbitqueen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r183092430-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1587,6 +1803,9 @@
     <t>The beds don't have fitted sheets just a mattress pad to hide the enormous amount of stains on the bed. Huge bloodstain on the side of the bed. Lights flicker if they come on at all. Mold in shower and cold hot handle was broken. Alarm clock and tv both broken. Coffee pot dirty smells of urine and smoke. Ac doesn't stay on. Floors are disgustingly filthy. Black in some spots. Staff rude to top if off, Never again!More</t>
   </si>
   <si>
+    <t>Sam F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r178377713-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1608,6 +1827,9 @@
     <t>I had stayed at this same Super 8 in September 2012 so didn't hesitate to reserve again for our September 2013 trip to Dallas.  Much had changed.  Very dingy room with dirty carpet. The AC worked, but the setting was only Very Cold or Colder, ran it until the room was comfy, then had to turn off to prevent freezing!  The light over the vanity flickered endlessly and once in awhile came on fully with only a tiny bit of flickering.  Non-working coffee pot in the room which may not matter to some, but I need my java early in the morning!  Broken alarm clock, permanently set to 8:08. The last morning I was there the rather persnickety bathroom sink knob fell off in my hand.   Unlike the previous stay, there were some rather unsavory acting people staying at the motel that made me just a tad nervous.  Breakfast was adequate, the breakfast area is quite small.  Great location which is why I stayed there.  I will choose a different hotel for the 2014 Dallas trip.More</t>
   </si>
   <si>
+    <t>IRENE K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r170965022-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1629,6 +1851,9 @@
     <t>August 3, 2013, I arrived around 7:00 pm. The first thought that came to my mind was this is a truck stop motel. I have stayed in Super 8 in different cities in Dallas, TX but this was a horror experience. The thug they had at the front desk was short with his responses and very rude. The room I checked in was extremely hot and the odor reminded me of a cat litter box and urine. In addition, the A/C was set to the highest it would allow and I became red due to the room so hot no joke. I proceeded to call the front desk to notify him I would like my money back due to the air not working, the bad odor, and the filthiness of the room. He refused to refund my money and stated since I have been in the room five minutes he cannot give me a refund but he can try switching me to a new room.  I advised him that it is not in writing nor did he verbally inform me about the five-minute policy but he stated it does not have to be in writing. When I went to the second room, it was worse. The A/C was hanging out of the wall and it was hotter. I called the desk, he refused to get me a manger, and he became argumentative so I had to come back to the...August 3, 2013, I arrived around 7:00 pm. The first thought that came to my mind was this is a truck stop motel. I have stayed in Super 8 in different cities in Dallas, TX but this was a horror experience. The thug they had at the front desk was short with his responses and very rude. The room I checked in was extremely hot and the odor reminded me of a cat litter box and urine. In addition, the A/C was set to the highest it would allow and I became red due to the room so hot no joke. I proceeded to call the front desk to notify him I would like my money back due to the air not working, the bad odor, and the filthiness of the room. He refused to refund my money and stated since I have been in the room five minutes he cannot give me a refund but he can try switching me to a new room.  I advised him that it is not in writing nor did he verbally inform me about the five-minute policy but he stated it does not have to be in writing. When I went to the second room, it was worse. The A/C was hanging out of the wall and it was hotter. I called the desk, he refused to get me a manger, and he became argumentative so I had to come back to the front desk and debate about getting my money back. I proceeded to call the Addison police, because he refused to get me a manger and provided no options to me. Remind you I had reservations for an event that had to be changed. In addition, it took 2 months for me to get the reservations and this experience is defiantly something I did not need that evening. The police arrived and inquired about the matter but the officers stated it is considered a civil lawsuit I would have to take up in court. The representative at the desk offered me a third room, which all of a sudden the A/C worked but the smell was still awful. I had to purchase disinfectant products and sanitize the room. The room had Iron marks on the carpet and the tub had mildew in the corner. Also, the bad only had a mattress pad with a sheet over it with a flannel blanket and the Iron board was disgusting with brown marks on it. The vents were so dusty and smelly. Finally, the TV did not come on and the clock did not work. Thank God, there were no bed bugs but I did file a complaint with corporate and I will be reporting them to the Better Business Bureau. Please do not set yourself up for failure and save your money by not going to this Super 8 in Addison, TX.More</t>
   </si>
   <si>
+    <t>Howard G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r169630344-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1641,6 +1866,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Billy A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r167631284-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1656,6 +1884,9 @@
     <t>Clean, comfortable room. Wi-Fi availability. Conveniently located near my meeting site. Located near restaurant row. Overall--a very pleasant experience.</t>
   </si>
   <si>
+    <t>Joshua C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r167350484-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1665,6 +1896,9 @@
     <t>07/12/2013</t>
   </si>
   <si>
+    <t>SeadeeH</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r164936471-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1677,6 +1911,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Marcelo A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r161729211-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1695,6 +1932,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Allan W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r160849050-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1704,6 +1944,9 @@
     <t>05/15/2013</t>
   </si>
   <si>
+    <t>Wade D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r158683162-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1722,6 +1965,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Christine M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r154400714-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1743,6 +1989,9 @@
     <t>The bed sheets were dirty, so soiled that I used the washing machines to wash them myself at 2am because I refused to sleep on them. There was a huge chunk missing from the bottom of the door letting in any bug that chose to wander my way. I stuffed a towel in the hole to keep out the bugs. The washer/dryer was against the wall that my bed was next too, so I didn't sleep at all, as there was laundry running all night long. Worst stay ever...More</t>
   </si>
   <si>
+    <t>Louise C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r153807032-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1755,6 +2004,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>HARLEY M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r149833270-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1767,6 +2019,9 @@
     <t>January 2013</t>
   </si>
   <si>
+    <t>Laurie-Ann C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r145561896-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1788,6 +2043,9 @@
     <t>I rated this Super 8 very good because the staff here is wonderful.  They are pet friendly and very reasonably priced.  I was here for seven days so I think I have a pretty good handle on the property.  The only con for this hotel may have be my room only so keep that in mind, the carpet needed cleaned badly.  I had to wear house shoes because the carpet colors hide the dirt pretty well but the soles of my feet told the real story.  The Hotel was a mile away from my conference site so I could run back and forth to let the dog out so the trade off was acceptable.  It's obvious it is not a brand new property but everything else was clean, as I said earlier the staff went out of their way to make sure my stay was great.  They serve a generic breakfast, the coffee is good, and the rooms have fridges and microwaves.  I feel I got exactly what I paid for and I was satisfied with the value.More</t>
   </si>
   <si>
+    <t>SANDRA L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r145368131-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1806,6 +2064,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>A Wyndham traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r145168326-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1815,6 +2076,9 @@
     <t>11/11/2012</t>
   </si>
   <si>
+    <t>JAMES H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r142818521-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1824,6 +2088,9 @@
     <t>10/14/2012</t>
   </si>
   <si>
+    <t>linda176</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r142468074-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1833,12 +2100,18 @@
     <t>10/10/2012</t>
   </si>
   <si>
+    <t>John_NewBoston_Tx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r142450355-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
     <t>142450355</t>
   </si>
   <si>
+    <t>Liz H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r134384826-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1857,6 +2130,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Lillie F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r133527430-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1875,6 +2151,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>MIchael F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r133464943-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1893,6 +2172,9 @@
     <t>After reading other reviews we went with this hotel just needing a place for the night.  It was in a good location, surrounded by good businesses and restaraunts, not too far off the freeway.  It was clean, it was quiet, everything worked fine, kids loved watching cable as we don't have it at home.  We found out after reserving that they had adjoining rooms, as in door-in-between some but had put in a special request that we be adjoining, as in right next door.  One room had a door into another room so should have contacted the hotel directly to see what type of room it was so will keep that in mind next time so hubby and I can stay in same room as kids are too little to be left alone.  They upgraded both rooms though so we could be next door without additional cost, nice surprise. It rained while we were there so didn't get to take part in the pool right outside our room, kids were a bit bummed but who can control the weather.  The continental breakfast was decent for the rate of the room it was adequate, my room actually slept in so we were late in getting there but kids ate the cereal and filled up on muffins and such so got us started. The only downside was nothing to do with the hotel, our phone rang at 4am with a wrong number,...After reading other reviews we went with this hotel just needing a place for the night.  It was in a good location, surrounded by good businesses and restaraunts, not too far off the freeway.  It was clean, it was quiet, everything worked fine, kids loved watching cable as we don't have it at home.  We found out after reserving that they had adjoining rooms, as in door-in-between some but had put in a special request that we be adjoining, as in right next door.  One room had a door into another room so should have contacted the hotel directly to see what type of room it was so will keep that in mind next time so hubby and I can stay in same room as kids are too little to be left alone.  They upgraded both rooms though so we could be next door without additional cost, nice surprise. It rained while we were there so didn't get to take part in the pool right outside our room, kids were a bit bummed but who can control the weather.  The continental breakfast was decent for the rate of the room it was adequate, my room actually slept in so we were late in getting there but kids ate the cereal and filled up on muffins and such so got us started. The only downside was nothing to do with the hotel, our phone rang at 4am with a wrong number, so much for sleeping in on vacation.  We would look to stay there again if we were wanting someplace family friendly and safe.  Thanks for a good stay.More</t>
   </si>
   <si>
+    <t>revmichaelg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r123568483-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1914,6 +2196,9 @@
     <t>My wife and I were in town visiting family. I scoured TripAdvisor for a reasonably priced hotel that had breakfast included. I was surprised that Super8s closer into downtown Dallas were substantially higher priced than this one in Addison. I used to live in Addison. It is very safe and still convenient to everything. The only thing that kept this from being a five star is that when we got into our room, the sink area was dirty and a washcloth was left with a lot of dirt on it. Other than that, everything worked fine. The front desk staff was different each day and all of them were very nice and accommodated us in our request for an extra towel and pillow. We left each day only returning to sleep at night and all of our things were left where we left them each day. I was very impressed and will stay here again.More</t>
   </si>
   <si>
+    <t>Iraqi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r120608285-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1932,6 +2217,9 @@
     <t>November 2011</t>
   </si>
   <si>
+    <t>Nick B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r119126073-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1950,6 +2238,9 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>James C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r116496916-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1968,6 +2259,9 @@
     <t>July 2011</t>
   </si>
   <si>
+    <t>lhumble</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r115933728-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1986,6 +2280,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>dracones</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r115300520-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -1999,6 +2296,9 @@
   </si>
   <si>
     <t>make sure you know the price before getting there; csr happy to rip you off. good location, decently clean if you don't expect much. regular "continental" breakfast. internet free, working ok for a motel.</t>
+  </si>
+  <si>
+    <t>Ramblin_Man63</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r90845473-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
@@ -2030,6 +2330,9 @@
 Most hotels would have just said...I always stay here when visiting Dallas/Addsion. The rooms are great, for the price paid, and the service is wonderful!! My room is always clean, and have never had a problem with this chain ...at this location ....or any location. The hotel is very easy to get in and out of, unlike some of the other hotels located on Beltline. This comes in VERY handy, especially during rush hours where Beltline can be stacked light to light. This Super 8 even has a traffic light right at the corner to make getting out even easier. It's right in the middle of the restaurant row area of Addison, so finding something to eat is never a problem, even if you are on foot. Even those on a small budget can enjoy "J's Waffle House" ...located right in front of the hotel ...very reasonable!!The front desk personel and manager couldn't have been more helpful. I, yes me, had made a mistake on my reservation and accidentally made it for the night before we arrived. So when we arrived they couldn't locate our reservation, but did locate our missed night and associated charges. I talked with the manager, who in turned called the Manager to explain my situation and all charges were refunded and I was given a room at the rate I had booked online by mistake, for the previous night. Very helpful and understanding!!!Most hotels would have just said "oh well" and pocketed my money, and then charged me for the night I needed. This Super 8 gives you more amenities for your money. They have a fridge right in the room and not just one of those tiny dorm ones either. It's one about twice that size, plus alarm clock, dresser, hangers, etc... I stayed at Motel 9 (wink) down the road on Beltline ...ended up paying more ...for way less. I had a heck of a time trying to get in and out of their place. They also had no dresser, no clock, no fridge, no hangers, cold hard floors, mattress on a platform with no box springs ...and these were touted as "newly remodeled rooms" .....HA!!!About the only down side would be that Super 8 is a little slower in the transistion to flat screen TV's than the rest, and I'm sure, in time, this WILL change ...In fact, I know it will.The TV they had worked fine ...it's just that once you go flat (at home) ....you don't want to go back ....lol. If you stay here in the summer, bring your swimsuit ...the pool was great and very relaxing, the one summer I did stay there.Btw ...I stay here at least once a year (except for the one Motel 9 accident) ...if not more.More</t>
   </si>
   <si>
+    <t>TXCTtraveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r46017126-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
   </si>
   <si>
@@ -2046,6 +2349,9 @@
   </si>
   <si>
     <t>August 2009</t>
+  </si>
+  <si>
+    <t>chintz1</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30141-d273411-r26867359-Super_8_by_the_Galleria_North_Dallas-Addison_Texas.html</t>
@@ -2577,43 +2883,47 @@
       <c r="A2" t="n">
         <v>21027</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178478</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -2635,56 +2945,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>21027</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178479</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="n">
         <v>1</v>
@@ -2706,56 +3020,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>21027</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>65391</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2767,54 +3085,58 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>21027</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>178480</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -2836,56 +3158,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Y5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>21027</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178481</v>
+      </c>
+      <c r="C6" t="s">
+        <v>87</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P6" t="n">
         <v>2</v>
@@ -2907,56 +3233,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="X6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="Y6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>21027</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>178482</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -2972,56 +3302,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>21027</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178483</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P8" t="n">
         <v>3</v>
@@ -3043,54 +3377,58 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>21027</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178484</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P9" t="n">
         <v>2</v>
@@ -3112,54 +3450,58 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>21027</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>178485</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="O10" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P10" t="n">
         <v>1</v>
@@ -3181,56 +3523,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="X10" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Y10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>21027</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178486</v>
+      </c>
+      <c r="C11" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="K11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P11" t="n">
         <v>1</v>
@@ -3252,54 +3598,58 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>21027</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178487</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O12" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -3321,54 +3671,58 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="X12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="Y12" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>21027</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>178488</v>
+      </c>
+      <c r="C13" t="s">
+        <v>147</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -3390,54 +3744,58 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>21027</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178489</v>
+      </c>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -3459,54 +3817,58 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="X14" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="Y14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>21027</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>100837</v>
+      </c>
+      <c r="C15" t="s">
+        <v>160</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="J15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P15" t="n">
         <v>5</v>
@@ -3528,56 +3890,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="X15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="Y15" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>21027</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>178490</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="L16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O16" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -3599,56 +3965,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="X16" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="Y16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>21027</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178491</v>
+      </c>
+      <c r="C17" t="s">
+        <v>172</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
+        <v>173</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" t="s">
+        <v>174</v>
+      </c>
+      <c r="J17" t="s">
+        <v>175</v>
+      </c>
+      <c r="K17" t="s">
+        <v>176</v>
+      </c>
+      <c r="L17" t="s">
+        <v>177</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
         <v>157</v>
       </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" t="s">
-        <v>158</v>
-      </c>
-      <c r="J17" t="s">
-        <v>159</v>
-      </c>
-      <c r="K17" t="s">
-        <v>160</v>
-      </c>
-      <c r="L17" t="s">
-        <v>161</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>144</v>
-      </c>
       <c r="O17" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -3670,56 +4040,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="X17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="Y17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>21027</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178492</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="J18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="K18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="L18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="O18" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3731,56 +4105,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="X18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="Y18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>21027</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>178493</v>
+      </c>
+      <c r="C19" t="s">
+        <v>190</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="J19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="K19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="O19" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -3802,56 +4180,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>21027</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>178494</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -3873,54 +4255,58 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="X20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>21027</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178495</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P21" t="n">
         <v>4</v>
@@ -3942,54 +4328,58 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="X21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>21027</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>178496</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -4011,56 +4401,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="X22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="Y22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>21027</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>178497</v>
+      </c>
+      <c r="C23" t="s">
+        <v>222</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="J23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="K23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="L23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -4082,54 +4476,58 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="X23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>21027</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>43637</v>
+      </c>
+      <c r="C24" t="s">
+        <v>231</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="J24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -4151,56 +4549,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="X24" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="Y24" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>21027</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>178498</v>
+      </c>
+      <c r="C25" t="s">
+        <v>236</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="K25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -4222,56 +4624,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="X25" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="Y25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>21027</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>178499</v>
+      </c>
+      <c r="C26" t="s">
+        <v>243</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="J26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="K26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>2</v>
@@ -4293,54 +4699,58 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="X26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="Y26" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>21027</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>178500</v>
+      </c>
+      <c r="C27" t="s">
+        <v>253</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="J27" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="O27" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P27" t="n">
         <v>2</v>
@@ -4362,54 +4772,58 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="X27" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="Y27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>21027</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>178501</v>
+      </c>
+      <c r="C28" t="s">
+        <v>256</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="J28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="O28" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -4431,56 +4845,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="X28" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="Y28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>21027</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>178502</v>
+      </c>
+      <c r="C29" t="s">
+        <v>260</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="J29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="K29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="L29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="M29" t="n">
         <v>4</v>
       </c>
       <c r="N29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="O29" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -4502,56 +4920,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="X29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="Y29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>21027</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>178503</v>
+      </c>
+      <c r="C30" t="s">
+        <v>270</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="J30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="K30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="L30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="O30" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -4573,56 +4995,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="X30" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="Y30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>21027</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>178504</v>
+      </c>
+      <c r="C31" t="s">
+        <v>277</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="J31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="L31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O31" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -4644,56 +5070,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="X31" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="Y31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>21027</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>178505</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="J32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="K32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -4715,56 +5145,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="X32" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="Y32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>21027</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>178506</v>
+      </c>
+      <c r="C33" t="s">
+        <v>292</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="J33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="K33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="O33" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="n">
@@ -4780,41 +5214,45 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="X33" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="Y33" t="s">
-        <v>267</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>21027</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>178507</v>
+      </c>
+      <c r="C34" t="s">
+        <v>300</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="J34" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
@@ -4822,10 +5260,10 @@
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="O34" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P34" t="n">
         <v>4</v>
@@ -4846,51 +5284,52 @@
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
-      <c r="Y34" t="s"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>21027</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>178508</v>
+      </c>
+      <c r="C35" t="s">
+        <v>304</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="J35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="K35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="L35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="O35" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P35" t="n">
         <v>1</v>
@@ -4912,56 +5351,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="X35" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="Y35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>21027</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>178509</v>
+      </c>
+      <c r="C36" t="s">
+        <v>313</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="J36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="K36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
       <c r="O36" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P36" t="n">
         <v>1</v>
@@ -4983,56 +5426,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="X36" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="Y36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>21027</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>178510</v>
+      </c>
+      <c r="C37" t="s">
+        <v>320</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="J37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="K37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="O37" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P37" t="n">
         <v>2</v>
@@ -5048,56 +5495,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="X37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="Y37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>21027</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>45255</v>
+      </c>
+      <c r="C38" t="s">
+        <v>330</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="J38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="K38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="L38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>4</v>
@@ -5119,56 +5570,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="X38" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="Y38" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>21027</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>178511</v>
+      </c>
+      <c r="C39" t="s">
+        <v>340</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>303</v>
+        <v>341</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
       <c r="J39" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="L39" t="s">
-        <v>307</v>
+        <v>345</v>
       </c>
       <c r="M39" t="n">
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P39" t="n">
         <v>2</v>
@@ -5190,56 +5645,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="X39" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="Y39" t="s">
-        <v>308</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>21027</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>178512</v>
+      </c>
+      <c r="C40" t="s">
+        <v>347</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="J40" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="K40" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="L40" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -5261,56 +5720,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="X40" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="Y40" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>21027</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>1363</v>
+      </c>
+      <c r="C41" t="s">
+        <v>355</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>317</v>
+        <v>357</v>
       </c>
       <c r="J41" t="s">
-        <v>318</v>
+        <v>358</v>
       </c>
       <c r="K41" t="s">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="L41" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="O41" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P41" t="n">
         <v>1</v>
@@ -5332,56 +5795,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="X41" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="Y41" t="s">
-        <v>322</v>
+        <v>362</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>21027</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>178513</v>
+      </c>
+      <c r="C42" t="s">
+        <v>363</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>323</v>
+        <v>364</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>324</v>
+        <v>365</v>
       </c>
       <c r="J42" t="s">
-        <v>325</v>
+        <v>366</v>
       </c>
       <c r="K42" t="s">
-        <v>326</v>
+        <v>367</v>
       </c>
       <c r="L42" t="s">
-        <v>327</v>
+        <v>368</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="O42" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P42" t="n">
         <v>3</v>
@@ -5403,54 +5870,58 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="X42" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="Y42" t="s">
-        <v>328</v>
+        <v>369</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>21027</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>178514</v>
+      </c>
+      <c r="C43" t="s">
+        <v>370</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>329</v>
+        <v>371</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>330</v>
+        <v>372</v>
       </c>
       <c r="J43" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>321</v>
+        <v>361</v>
       </c>
       <c r="O43" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -5472,54 +5943,58 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="X43" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="Y43" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>21027</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>178515</v>
+      </c>
+      <c r="C44" t="s">
+        <v>374</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="J44" t="s">
-        <v>334</v>
+        <v>377</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="O44" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P44" t="n">
         <v>2</v>
@@ -5541,54 +6016,58 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="X44" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="Y44" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>21027</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>178516</v>
+      </c>
+      <c r="C45" t="s">
+        <v>381</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="J45" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>335</v>
+        <v>378</v>
       </c>
       <c r="O45" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -5610,56 +6089,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="X45" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="Y45" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>21027</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>178517</v>
+      </c>
+      <c r="C46" t="s">
+        <v>387</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>344</v>
+        <v>389</v>
       </c>
       <c r="J46" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="K46" t="s">
-        <v>346</v>
+        <v>391</v>
       </c>
       <c r="L46" t="s">
-        <v>347</v>
+        <v>392</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="O46" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -5681,54 +6164,58 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>336</v>
+        <v>379</v>
       </c>
       <c r="X46" t="s">
-        <v>337</v>
+        <v>380</v>
       </c>
       <c r="Y46" t="s">
-        <v>349</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>21027</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>178518</v>
+      </c>
+      <c r="C47" t="s">
+        <v>395</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="J47" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="O47" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -5750,56 +6237,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="X47" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="Y47" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>21027</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>173472</v>
+      </c>
+      <c r="C48" t="s">
+        <v>400</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>354</v>
+        <v>401</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="J48" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="K48" t="s">
-        <v>356</v>
+        <v>403</v>
       </c>
       <c r="L48" t="s">
-        <v>357</v>
+        <v>404</v>
       </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="O48" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5811,56 +6302,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="X48" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="Y48" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>21027</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>178519</v>
+      </c>
+      <c r="C49" t="s">
+        <v>407</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>360</v>
+        <v>408</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="J49" t="s">
-        <v>362</v>
+        <v>410</v>
       </c>
       <c r="K49" t="s">
-        <v>363</v>
+        <v>411</v>
       </c>
       <c r="L49" t="s">
-        <v>364</v>
+        <v>412</v>
       </c>
       <c r="M49" t="n">
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -5872,54 +6367,58 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="X49" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="Y49" t="s">
-        <v>365</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>21027</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>178520</v>
+      </c>
+      <c r="C50" t="s">
+        <v>414</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>366</v>
+        <v>415</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>367</v>
+        <v>416</v>
       </c>
       <c r="J50" t="s">
-        <v>368</v>
+        <v>417</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="O50" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P50" t="n">
         <v>3</v>
@@ -5941,56 +6440,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="X50" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="Y50" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>21027</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>11994</v>
+      </c>
+      <c r="C51" t="s">
+        <v>419</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="J51" t="s">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="K51" t="s">
-        <v>373</v>
+        <v>423</v>
       </c>
       <c r="L51" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="M51" t="n">
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="O51" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P51" t="n">
         <v>3</v>
@@ -6012,54 +6515,58 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="X51" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="Y51" t="s">
-        <v>377</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>21027</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>178521</v>
+      </c>
+      <c r="C52" t="s">
+        <v>428</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>378</v>
+        <v>429</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>379</v>
+        <v>430</v>
       </c>
       <c r="J52" t="s">
-        <v>380</v>
+        <v>431</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M52" t="n">
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>369</v>
+        <v>418</v>
       </c>
       <c r="O52" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -6081,56 +6588,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="X52" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="Y52" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>21027</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>15606</v>
+      </c>
+      <c r="C53" t="s">
+        <v>432</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="J53" t="s">
-        <v>383</v>
+        <v>435</v>
       </c>
       <c r="K53" t="s">
-        <v>384</v>
+        <v>436</v>
       </c>
       <c r="L53" t="s">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>386</v>
+        <v>438</v>
       </c>
       <c r="O53" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P53" t="n">
         <v>1</v>
@@ -6152,56 +6663,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="X53" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="Y53" t="s">
-        <v>387</v>
+        <v>439</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>21027</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>178522</v>
+      </c>
+      <c r="C54" t="s">
+        <v>440</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>388</v>
+        <v>441</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="J54" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="K54" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="L54" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="M54" t="n">
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>358</v>
+        <v>405</v>
       </c>
       <c r="O54" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -6223,56 +6738,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="X54" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="Y54" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>21027</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>173472</v>
+      </c>
+      <c r="C55" t="s">
+        <v>400</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="J55" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="K55" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="L55" t="s">
-        <v>398</v>
+        <v>451</v>
       </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
       <c r="N55" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="O55" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6284,56 +6803,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="X55" t="s">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="Y55" t="s">
-        <v>400</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>21027</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>178523</v>
+      </c>
+      <c r="C56" t="s">
+        <v>454</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>401</v>
+        <v>455</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>402</v>
+        <v>456</v>
       </c>
       <c r="J56" t="s">
-        <v>403</v>
+        <v>457</v>
       </c>
       <c r="K56" t="s">
-        <v>404</v>
+        <v>458</v>
       </c>
       <c r="L56" t="s">
+        <v>459</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="s">
         <v>405</v>
       </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="s">
-        <v>358</v>
-      </c>
       <c r="O56" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P56" t="n">
         <v>1</v>
@@ -6355,56 +6878,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="X56" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="Y56" t="s">
-        <v>408</v>
+        <v>462</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>21027</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>178524</v>
+      </c>
+      <c r="C57" t="s">
+        <v>463</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>409</v>
+        <v>464</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="J57" t="s">
-        <v>411</v>
+        <v>466</v>
       </c>
       <c r="K57" t="s">
-        <v>412</v>
+        <v>467</v>
       </c>
       <c r="L57" t="s">
-        <v>413</v>
+        <v>468</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="O57" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P57" t="n">
         <v>2</v>
@@ -6426,54 +6953,58 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="X57" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="Y57" t="s">
-        <v>415</v>
+        <v>470</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>21027</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>6779</v>
+      </c>
+      <c r="C58" t="s">
+        <v>471</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="J58" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>414</v>
+        <v>469</v>
       </c>
       <c r="O58" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P58" t="n">
         <v>1</v>
@@ -6495,41 +7026,45 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>406</v>
+        <v>460</v>
       </c>
       <c r="X58" t="s">
-        <v>407</v>
+        <v>461</v>
       </c>
       <c r="Y58" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>21027</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>178525</v>
+      </c>
+      <c r="C59" t="s">
+        <v>475</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="J59" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="K59" t="s"/>
       <c r="L59" t="s"/>
@@ -6537,10 +7072,10 @@
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>399</v>
+        <v>452</v>
       </c>
       <c r="O59" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6561,51 +7096,52 @@
       <c r="V59" t="n">
         <v>0</v>
       </c>
-      <c r="W59" t="s"/>
-      <c r="X59" t="s"/>
-      <c r="Y59" t="s"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>21027</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>35937</v>
+      </c>
+      <c r="C60" t="s">
+        <v>479</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>422</v>
+        <v>480</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>423</v>
+        <v>481</v>
       </c>
       <c r="J60" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="K60" t="s">
-        <v>425</v>
+        <v>483</v>
       </c>
       <c r="L60" t="s">
-        <v>426</v>
+        <v>484</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>427</v>
+        <v>485</v>
       </c>
       <c r="O60" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -6629,50 +7165,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>428</v>
+        <v>486</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>21027</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>178526</v>
+      </c>
+      <c r="C61" t="s">
+        <v>487</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>429</v>
+        <v>488</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>430</v>
+        <v>489</v>
       </c>
       <c r="J61" t="s">
-        <v>431</v>
+        <v>490</v>
       </c>
       <c r="K61" t="s">
-        <v>432</v>
+        <v>491</v>
       </c>
       <c r="L61" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>434</v>
+        <v>493</v>
       </c>
       <c r="O61" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -6694,56 +7234,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>435</v>
+        <v>494</v>
       </c>
       <c r="X61" t="s">
-        <v>436</v>
+        <v>495</v>
       </c>
       <c r="Y61" t="s">
-        <v>437</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>21027</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>178527</v>
+      </c>
+      <c r="C62" t="s">
+        <v>497</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>438</v>
+        <v>498</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>439</v>
+        <v>499</v>
       </c>
       <c r="J62" t="s">
-        <v>440</v>
+        <v>500</v>
       </c>
       <c r="K62" t="s">
-        <v>441</v>
+        <v>501</v>
       </c>
       <c r="L62" t="s">
-        <v>442</v>
+        <v>502</v>
       </c>
       <c r="M62" t="n">
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>443</v>
+        <v>503</v>
       </c>
       <c r="O62" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P62" t="n">
         <v>2</v>
@@ -6765,54 +7309,58 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>444</v>
+        <v>504</v>
       </c>
       <c r="X62" t="s">
-        <v>445</v>
+        <v>505</v>
       </c>
       <c r="Y62" t="s">
-        <v>446</v>
+        <v>506</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>21027</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>28352</v>
+      </c>
+      <c r="C63" t="s">
+        <v>507</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>447</v>
+        <v>508</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>448</v>
+        <v>509</v>
       </c>
       <c r="J63" t="s">
-        <v>449</v>
+        <v>510</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>450</v>
+        <v>511</v>
       </c>
       <c r="O63" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P63" t="n">
         <v>4</v>
@@ -6834,56 +7382,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>451</v>
+        <v>512</v>
       </c>
       <c r="X63" t="s">
-        <v>452</v>
+        <v>513</v>
       </c>
       <c r="Y63" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>21027</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>173472</v>
+      </c>
+      <c r="C64" t="s">
+        <v>400</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>453</v>
+        <v>514</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>454</v>
+        <v>515</v>
       </c>
       <c r="J64" t="s">
-        <v>455</v>
+        <v>516</v>
       </c>
       <c r="K64" t="s">
-        <v>456</v>
+        <v>517</v>
       </c>
       <c r="L64" t="s">
-        <v>457</v>
+        <v>518</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>458</v>
+        <v>519</v>
       </c>
       <c r="O64" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P64" t="n">
         <v>1</v>
@@ -6905,54 +7457,58 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>459</v>
+        <v>520</v>
       </c>
       <c r="X64" t="s">
-        <v>460</v>
+        <v>521</v>
       </c>
       <c r="Y64" t="s">
-        <v>461</v>
+        <v>522</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>21027</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>2464</v>
+      </c>
+      <c r="C65" t="s">
+        <v>523</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>462</v>
+        <v>524</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>463</v>
+        <v>525</v>
       </c>
       <c r="J65" t="s">
-        <v>464</v>
+        <v>526</v>
       </c>
       <c r="K65" t="s"/>
       <c r="L65" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>465</v>
+        <v>527</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>2</v>
@@ -6974,56 +7530,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>466</v>
+        <v>528</v>
       </c>
       <c r="X65" t="s">
-        <v>467</v>
+        <v>529</v>
       </c>
       <c r="Y65" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>21027</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>178528</v>
+      </c>
+      <c r="C66" t="s">
+        <v>530</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>469</v>
+        <v>532</v>
       </c>
       <c r="J66" t="s">
-        <v>470</v>
+        <v>533</v>
       </c>
       <c r="K66" t="s">
-        <v>471</v>
+        <v>534</v>
       </c>
       <c r="L66" t="s">
-        <v>472</v>
+        <v>535</v>
       </c>
       <c r="M66" t="n">
         <v>3</v>
       </c>
       <c r="N66" t="s">
-        <v>473</v>
+        <v>536</v>
       </c>
       <c r="O66" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P66" t="s"/>
       <c r="Q66" t="s"/>
@@ -7041,54 +7601,58 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="X66" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
       <c r="Y66" t="s">
-        <v>476</v>
+        <v>539</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>21027</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>700</v>
+      </c>
+      <c r="C67" t="s">
+        <v>540</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>477</v>
+        <v>541</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>478</v>
+        <v>542</v>
       </c>
       <c r="J67" t="s">
-        <v>479</v>
+        <v>543</v>
       </c>
       <c r="K67" t="s"/>
       <c r="L67" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>473</v>
+        <v>536</v>
       </c>
       <c r="O67" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -7110,41 +7674,45 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>474</v>
+        <v>537</v>
       </c>
       <c r="X67" t="s">
-        <v>475</v>
+        <v>538</v>
       </c>
       <c r="Y67" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>21027</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>8024</v>
+      </c>
+      <c r="C68" t="s">
+        <v>544</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>480</v>
+        <v>545</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>481</v>
+        <v>546</v>
       </c>
       <c r="J68" t="s">
-        <v>482</v>
+        <v>547</v>
       </c>
       <c r="K68" t="s"/>
       <c r="L68" t="s"/>
@@ -7152,10 +7720,10 @@
         <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>483</v>
+        <v>548</v>
       </c>
       <c r="O68" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P68" t="n">
         <v>5</v>
@@ -7176,49 +7744,50 @@
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
-      <c r="Y68" t="s"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>21027</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>157344</v>
+      </c>
+      <c r="C69" t="s">
+        <v>549</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>485</v>
+        <v>551</v>
       </c>
       <c r="J69" t="s">
-        <v>482</v>
+        <v>547</v>
       </c>
       <c r="K69" t="s"/>
       <c r="L69" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M69" t="n">
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>483</v>
+        <v>548</v>
       </c>
       <c r="O69" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7240,54 +7809,58 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>486</v>
+        <v>552</v>
       </c>
       <c r="X69" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="Y69" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>21027</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>4279</v>
+      </c>
+      <c r="C70" t="s">
+        <v>554</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>488</v>
+        <v>555</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>489</v>
+        <v>556</v>
       </c>
       <c r="J70" t="s">
-        <v>490</v>
+        <v>557</v>
       </c>
       <c r="K70" t="s"/>
       <c r="L70" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>483</v>
+        <v>548</v>
       </c>
       <c r="O70" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -7311,35 +7884,39 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>21027</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>178529</v>
+      </c>
+      <c r="C71" t="s">
+        <v>558</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>491</v>
+        <v>559</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>492</v>
+        <v>560</v>
       </c>
       <c r="J71" t="s">
-        <v>493</v>
+        <v>561</v>
       </c>
       <c r="K71" t="s"/>
       <c r="L71" t="s"/>
@@ -7347,10 +7924,10 @@
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>494</v>
+        <v>562</v>
       </c>
       <c r="O71" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7371,49 +7948,50 @@
       <c r="V71" t="n">
         <v>0</v>
       </c>
-      <c r="W71" t="s"/>
-      <c r="X71" t="s"/>
-      <c r="Y71" t="s"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>21027</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>138294</v>
+      </c>
+      <c r="C72" t="s">
+        <v>563</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>495</v>
+        <v>564</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>496</v>
+        <v>565</v>
       </c>
       <c r="J72" t="s">
-        <v>497</v>
+        <v>566</v>
       </c>
       <c r="K72" t="s"/>
       <c r="L72" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>494</v>
+        <v>562</v>
       </c>
       <c r="O72" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -7435,54 +8013,58 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="X72" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="Y72" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>21027</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>178530</v>
+      </c>
+      <c r="C73" t="s">
+        <v>569</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>501</v>
+        <v>571</v>
       </c>
       <c r="J73" t="s">
-        <v>502</v>
+        <v>572</v>
       </c>
       <c r="K73" t="s"/>
       <c r="L73" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M73" t="n">
         <v>3</v>
       </c>
       <c r="N73" t="s">
-        <v>494</v>
+        <v>562</v>
       </c>
       <c r="O73" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P73" t="n">
         <v>3</v>
@@ -7504,56 +8086,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="X73" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="Y73" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>21027</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>47748</v>
+      </c>
+      <c r="C74" t="s">
+        <v>573</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>503</v>
+        <v>574</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>504</v>
+        <v>575</v>
       </c>
       <c r="J74" t="s">
-        <v>505</v>
+        <v>576</v>
       </c>
       <c r="K74" t="s">
-        <v>506</v>
+        <v>577</v>
       </c>
       <c r="L74" t="s">
-        <v>507</v>
+        <v>578</v>
       </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="O74" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P74" t="n">
         <v>2</v>
@@ -7575,54 +8161,58 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>509</v>
+        <v>580</v>
       </c>
       <c r="X74" t="s">
-        <v>510</v>
+        <v>581</v>
       </c>
       <c r="Y74" t="s">
-        <v>511</v>
+        <v>582</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>21027</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>28352</v>
+      </c>
+      <c r="C75" t="s">
+        <v>507</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>512</v>
+        <v>583</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>513</v>
+        <v>584</v>
       </c>
       <c r="J75" t="s">
-        <v>514</v>
+        <v>585</v>
       </c>
       <c r="K75" t="s"/>
       <c r="L75" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>508</v>
+        <v>579</v>
       </c>
       <c r="O75" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P75" t="n">
         <v>4</v>
@@ -7644,47 +8234,51 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>509</v>
+        <v>580</v>
       </c>
       <c r="X75" t="s">
-        <v>510</v>
+        <v>581</v>
       </c>
       <c r="Y75" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>21027</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>178531</v>
+      </c>
+      <c r="C76" t="s">
+        <v>586</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>515</v>
+        <v>587</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>516</v>
+        <v>588</v>
       </c>
       <c r="J76" t="s">
-        <v>517</v>
+        <v>589</v>
       </c>
       <c r="K76" t="s">
-        <v>518</v>
+        <v>590</v>
       </c>
       <c r="L76" t="s">
-        <v>519</v>
+        <v>591</v>
       </c>
       <c r="M76" t="n">
         <v>2</v>
@@ -7711,56 +8305,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="X76" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="Y76" t="s">
-        <v>520</v>
+        <v>592</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>21027</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>28592</v>
+      </c>
+      <c r="C77" t="s">
+        <v>593</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>521</v>
+        <v>594</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>522</v>
+        <v>595</v>
       </c>
       <c r="J77" t="s">
-        <v>523</v>
+        <v>596</v>
       </c>
       <c r="K77" t="s">
-        <v>524</v>
+        <v>597</v>
       </c>
       <c r="L77" t="s">
-        <v>525</v>
+        <v>598</v>
       </c>
       <c r="M77" t="n">
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>526</v>
+        <v>599</v>
       </c>
       <c r="O77" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P77" t="n">
         <v>2</v>
@@ -7782,56 +8380,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="X77" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="Y77" t="s">
-        <v>527</v>
+        <v>600</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>21027</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>178532</v>
+      </c>
+      <c r="C78" t="s">
+        <v>601</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>528</v>
+        <v>602</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>529</v>
+        <v>603</v>
       </c>
       <c r="J78" t="s">
-        <v>530</v>
+        <v>604</v>
       </c>
       <c r="K78" t="s">
-        <v>531</v>
+        <v>605</v>
       </c>
       <c r="L78" t="s">
-        <v>532</v>
+        <v>606</v>
       </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
       <c r="N78" t="s">
-        <v>533</v>
+        <v>607</v>
       </c>
       <c r="O78" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P78" t="n">
         <v>1</v>
@@ -7853,54 +8455,58 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="X78" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="Y78" t="s">
-        <v>534</v>
+        <v>608</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>21027</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>102963</v>
+      </c>
+      <c r="C79" t="s">
+        <v>609</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>535</v>
+        <v>610</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>536</v>
+        <v>611</v>
       </c>
       <c r="J79" t="s">
-        <v>537</v>
+        <v>612</v>
       </c>
       <c r="K79" t="s"/>
       <c r="L79" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
       <c r="N79" t="s">
-        <v>538</v>
+        <v>613</v>
       </c>
       <c r="O79" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -7922,56 +8528,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="X79" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="Y79" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>21027</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>109488</v>
+      </c>
+      <c r="C80" t="s">
+        <v>614</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>539</v>
+        <v>615</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>540</v>
+        <v>616</v>
       </c>
       <c r="J80" t="s">
-        <v>541</v>
+        <v>617</v>
       </c>
       <c r="K80" t="s">
-        <v>542</v>
+        <v>618</v>
       </c>
       <c r="L80" t="s">
-        <v>543</v>
+        <v>619</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>538</v>
+        <v>613</v>
       </c>
       <c r="O80" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -7995,48 +8605,52 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>543</v>
+        <v>619</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>21027</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>68799</v>
+      </c>
+      <c r="C81" t="s">
+        <v>620</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>544</v>
+        <v>621</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>545</v>
+        <v>622</v>
       </c>
       <c r="J81" t="s">
-        <v>546</v>
+        <v>623</v>
       </c>
       <c r="K81" t="s"/>
       <c r="L81" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
       </c>
       <c r="N81" t="s">
-        <v>538</v>
+        <v>613</v>
       </c>
       <c r="O81" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P81" t="n">
         <v>4</v>
@@ -8058,41 +8672,45 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="X81" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="Y81" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>21027</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>178533</v>
+      </c>
+      <c r="C82" t="s">
+        <v>624</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>547</v>
+        <v>625</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>548</v>
+        <v>626</v>
       </c>
       <c r="J82" t="s">
-        <v>549</v>
+        <v>627</v>
       </c>
       <c r="K82" t="s"/>
       <c r="L82" t="s"/>
@@ -8100,10 +8718,10 @@
         <v>5</v>
       </c>
       <c r="N82" t="s">
-        <v>550</v>
+        <v>628</v>
       </c>
       <c r="O82" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8124,51 +8742,52 @@
       <c r="V82" t="n">
         <v>0</v>
       </c>
-      <c r="W82" t="s"/>
-      <c r="X82" t="s"/>
-      <c r="Y82" t="s"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>21027</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>178534</v>
+      </c>
+      <c r="C83" t="s">
+        <v>629</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>551</v>
+        <v>630</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>552</v>
+        <v>631</v>
       </c>
       <c r="J83" t="s">
-        <v>553</v>
+        <v>632</v>
       </c>
       <c r="K83" t="s">
-        <v>554</v>
+        <v>633</v>
       </c>
       <c r="L83" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
       <c r="M83" t="n">
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>5</v>
@@ -8192,48 +8811,52 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>555</v>
+        <v>634</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>21027</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>32432</v>
+      </c>
+      <c r="C84" t="s">
+        <v>636</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>557</v>
+        <v>637</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>558</v>
+        <v>638</v>
       </c>
       <c r="J84" t="s">
-        <v>559</v>
+        <v>639</v>
       </c>
       <c r="K84" t="s"/>
       <c r="L84" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
       <c r="N84" t="s">
-        <v>556</v>
+        <v>635</v>
       </c>
       <c r="O84" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -8255,56 +8878,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="X84" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="Y84" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>21027</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>95361</v>
+      </c>
+      <c r="C85" t="s">
+        <v>640</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>560</v>
+        <v>641</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>561</v>
+        <v>642</v>
       </c>
       <c r="J85" t="s">
-        <v>562</v>
+        <v>643</v>
       </c>
       <c r="K85" t="s">
-        <v>563</v>
+        <v>644</v>
       </c>
       <c r="L85" t="s">
-        <v>564</v>
+        <v>645</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
       </c>
       <c r="N85" t="s">
-        <v>565</v>
+        <v>646</v>
       </c>
       <c r="O85" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8328,50 +8955,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>564</v>
+        <v>645</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>21027</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>1146</v>
+      </c>
+      <c r="C86" t="s">
+        <v>647</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>566</v>
+        <v>648</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>567</v>
+        <v>649</v>
       </c>
       <c r="J86" t="s">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="K86" t="s">
-        <v>569</v>
+        <v>651</v>
       </c>
       <c r="L86" t="s">
-        <v>570</v>
+        <v>652</v>
       </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
       <c r="N86" t="s">
-        <v>571</v>
+        <v>653</v>
       </c>
       <c r="O86" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8393,41 +9024,45 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="X86" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="Y86" t="s">
-        <v>572</v>
+        <v>654</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>21027</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>11318</v>
+      </c>
+      <c r="C87" t="s">
+        <v>655</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
       <c r="J87" t="s">
-        <v>575</v>
+        <v>658</v>
       </c>
       <c r="K87" t="s"/>
       <c r="L87" t="s"/>
@@ -8435,10 +9070,10 @@
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>576</v>
+        <v>659</v>
       </c>
       <c r="O87" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P87" t="n">
         <v>4</v>
@@ -8459,36 +9094,37 @@
       <c r="V87" t="n">
         <v>0</v>
       </c>
-      <c r="W87" t="s"/>
-      <c r="X87" t="s"/>
-      <c r="Y87" t="s"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>21027</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>178535</v>
+      </c>
+      <c r="C88" t="s">
+        <v>660</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>577</v>
+        <v>661</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>578</v>
+        <v>662</v>
       </c>
       <c r="J88" t="s">
-        <v>579</v>
+        <v>663</v>
       </c>
       <c r="K88" t="s"/>
       <c r="L88" t="s"/>
@@ -8496,10 +9132,10 @@
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>580</v>
+        <v>664</v>
       </c>
       <c r="O88" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P88" t="n">
         <v>2</v>
@@ -8520,51 +9156,52 @@
       <c r="V88" t="n">
         <v>0</v>
       </c>
-      <c r="W88" t="s"/>
-      <c r="X88" t="s"/>
-      <c r="Y88" t="s"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>21027</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>178536</v>
+      </c>
+      <c r="C89" t="s">
+        <v>665</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>581</v>
+        <v>666</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>582</v>
+        <v>667</v>
       </c>
       <c r="J89" t="s">
-        <v>583</v>
+        <v>668</v>
       </c>
       <c r="K89" t="s">
-        <v>584</v>
+        <v>669</v>
       </c>
       <c r="L89" t="s">
-        <v>585</v>
+        <v>670</v>
       </c>
       <c r="M89" t="n">
         <v>4</v>
       </c>
       <c r="N89" t="s">
-        <v>586</v>
+        <v>671</v>
       </c>
       <c r="O89" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8588,50 +9225,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>587</v>
+        <v>672</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>21027</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>178537</v>
+      </c>
+      <c r="C90" t="s">
+        <v>673</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>588</v>
+        <v>674</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>589</v>
+        <v>675</v>
       </c>
       <c r="J90" t="s">
-        <v>590</v>
+        <v>676</v>
       </c>
       <c r="K90" t="s">
-        <v>591</v>
+        <v>677</v>
       </c>
       <c r="L90" t="s">
-        <v>592</v>
+        <v>678</v>
       </c>
       <c r="M90" t="n">
         <v>3</v>
       </c>
       <c r="N90" t="s">
-        <v>593</v>
+        <v>679</v>
       </c>
       <c r="O90" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P90" t="n">
         <v>1</v>
@@ -8655,35 +9296,39 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>592</v>
+        <v>678</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>21027</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>6509</v>
+      </c>
+      <c r="C91" t="s">
+        <v>680</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>594</v>
+        <v>681</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>595</v>
+        <v>682</v>
       </c>
       <c r="J91" t="s">
-        <v>596</v>
+        <v>683</v>
       </c>
       <c r="K91" t="s"/>
       <c r="L91" t="s"/>
@@ -8691,10 +9336,10 @@
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>586</v>
+        <v>671</v>
       </c>
       <c r="O91" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8715,49 +9360,50 @@
       <c r="V91" t="n">
         <v>0</v>
       </c>
-      <c r="W91" t="s"/>
-      <c r="X91" t="s"/>
-      <c r="Y91" t="s"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>21027</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>178538</v>
+      </c>
+      <c r="C92" t="s">
+        <v>684</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>597</v>
+        <v>685</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>598</v>
+        <v>686</v>
       </c>
       <c r="J92" t="s">
-        <v>599</v>
+        <v>687</v>
       </c>
       <c r="K92" t="s"/>
       <c r="L92" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
       </c>
       <c r="N92" t="s">
-        <v>593</v>
+        <v>679</v>
       </c>
       <c r="O92" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P92" t="n">
         <v>3</v>
@@ -8779,41 +9425,45 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>498</v>
+        <v>567</v>
       </c>
       <c r="X92" t="s">
-        <v>499</v>
+        <v>568</v>
       </c>
       <c r="Y92" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>21027</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>178539</v>
+      </c>
+      <c r="C93" t="s">
+        <v>688</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>600</v>
+        <v>689</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>601</v>
+        <v>690</v>
       </c>
       <c r="J93" t="s">
-        <v>602</v>
+        <v>691</v>
       </c>
       <c r="K93" t="s"/>
       <c r="L93" t="s"/>
@@ -8821,10 +9471,10 @@
         <v>3</v>
       </c>
       <c r="N93" t="s">
-        <v>593</v>
+        <v>679</v>
       </c>
       <c r="O93" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -8845,36 +9495,37 @@
       <c r="V93" t="n">
         <v>0</v>
       </c>
-      <c r="W93" t="s"/>
-      <c r="X93" t="s"/>
-      <c r="Y93" t="s"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>21027</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>178540</v>
+      </c>
+      <c r="C94" t="s">
+        <v>692</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>603</v>
+        <v>693</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>604</v>
+        <v>694</v>
       </c>
       <c r="J94" t="s">
-        <v>602</v>
+        <v>691</v>
       </c>
       <c r="K94" t="s"/>
       <c r="L94" t="s"/>
@@ -8882,10 +9533,10 @@
         <v>5</v>
       </c>
       <c r="N94" t="s">
-        <v>593</v>
+        <v>679</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>5</v>
@@ -8906,51 +9557,52 @@
       <c r="V94" t="n">
         <v>0</v>
       </c>
-      <c r="W94" t="s"/>
-      <c r="X94" t="s"/>
-      <c r="Y94" t="s"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>21027</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>104857</v>
+      </c>
+      <c r="C95" t="s">
+        <v>695</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>606</v>
+        <v>697</v>
       </c>
       <c r="J95" t="s">
-        <v>607</v>
+        <v>698</v>
       </c>
       <c r="K95" t="s">
-        <v>608</v>
+        <v>699</v>
       </c>
       <c r="L95" t="s">
-        <v>609</v>
+        <v>700</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>610</v>
+        <v>701</v>
       </c>
       <c r="O95" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P95" t="n">
         <v>3</v>
@@ -8974,50 +9626,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>609</v>
+        <v>700</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>21027</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>178541</v>
+      </c>
+      <c r="C96" t="s">
+        <v>702</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>611</v>
+        <v>703</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>612</v>
+        <v>704</v>
       </c>
       <c r="J96" t="s">
-        <v>613</v>
+        <v>705</v>
       </c>
       <c r="K96" t="s">
-        <v>614</v>
+        <v>706</v>
       </c>
       <c r="L96" t="s">
-        <v>615</v>
+        <v>707</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>616</v>
+        <v>708</v>
       </c>
       <c r="O96" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9041,50 +9697,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>615</v>
+        <v>707</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>21027</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>178542</v>
+      </c>
+      <c r="C97" t="s">
+        <v>709</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>617</v>
+        <v>710</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>618</v>
+        <v>711</v>
       </c>
       <c r="J97" t="s">
-        <v>619</v>
+        <v>712</v>
       </c>
       <c r="K97" t="s">
-        <v>620</v>
+        <v>713</v>
       </c>
       <c r="L97" t="s">
-        <v>621</v>
+        <v>714</v>
       </c>
       <c r="M97" t="n">
         <v>4</v>
       </c>
       <c r="N97" t="s">
-        <v>616</v>
+        <v>708</v>
       </c>
       <c r="O97" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P97" t="n">
         <v>4</v>
@@ -9108,50 +9768,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>622</v>
+        <v>715</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>21027</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>178543</v>
+      </c>
+      <c r="C98" t="s">
+        <v>716</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>623</v>
+        <v>717</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>624</v>
+        <v>718</v>
       </c>
       <c r="J98" t="s">
-        <v>625</v>
+        <v>719</v>
       </c>
       <c r="K98" t="s">
-        <v>626</v>
+        <v>720</v>
       </c>
       <c r="L98" t="s">
-        <v>627</v>
+        <v>721</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>628</v>
+        <v>722</v>
       </c>
       <c r="O98" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -9175,50 +9839,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>629</v>
+        <v>723</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>21027</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>178544</v>
+      </c>
+      <c r="C99" t="s">
+        <v>724</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>630</v>
+        <v>725</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>631</v>
+        <v>726</v>
       </c>
       <c r="J99" t="s">
-        <v>632</v>
+        <v>727</v>
       </c>
       <c r="K99" t="s">
-        <v>633</v>
+        <v>728</v>
       </c>
       <c r="L99" t="s">
-        <v>634</v>
+        <v>729</v>
       </c>
       <c r="M99" t="n">
         <v>3</v>
       </c>
       <c r="N99" t="s">
-        <v>635</v>
+        <v>730</v>
       </c>
       <c r="O99" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9242,50 +9910,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>634</v>
+        <v>729</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>21027</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>23432</v>
+      </c>
+      <c r="C100" t="s">
+        <v>731</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>636</v>
+        <v>732</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>637</v>
+        <v>733</v>
       </c>
       <c r="J100" t="s">
-        <v>638</v>
+        <v>734</v>
       </c>
       <c r="K100" t="s">
-        <v>639</v>
+        <v>735</v>
       </c>
       <c r="L100" t="s">
-        <v>640</v>
+        <v>736</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>641</v>
+        <v>737</v>
       </c>
       <c r="O100" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9309,50 +9981,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>640</v>
+        <v>736</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>21027</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>4611</v>
+      </c>
+      <c r="C101" t="s">
+        <v>738</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>642</v>
+        <v>739</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>643</v>
+        <v>740</v>
       </c>
       <c r="J101" t="s">
-        <v>644</v>
+        <v>741</v>
       </c>
       <c r="K101" t="s">
-        <v>645</v>
+        <v>742</v>
       </c>
       <c r="L101" t="s">
-        <v>646</v>
+        <v>743</v>
       </c>
       <c r="M101" t="n">
         <v>5</v>
       </c>
       <c r="N101" t="s">
-        <v>647</v>
+        <v>744</v>
       </c>
       <c r="O101" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="P101" t="n">
         <v>5</v>
@@ -9372,50 +10048,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>646</v>
+        <v>743</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>21027</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>178545</v>
+      </c>
+      <c r="C102" t="s">
+        <v>745</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>648</v>
+        <v>746</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>649</v>
+        <v>747</v>
       </c>
       <c r="J102" t="s">
-        <v>650</v>
+        <v>748</v>
       </c>
       <c r="K102" t="s">
-        <v>651</v>
+        <v>749</v>
       </c>
       <c r="L102" t="s">
-        <v>652</v>
+        <v>750</v>
       </c>
       <c r="M102" t="n">
         <v>4</v>
       </c>
       <c r="N102" t="s">
-        <v>653</v>
+        <v>751</v>
       </c>
       <c r="O102" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P102" t="s"/>
       <c r="Q102" t="s"/>
@@ -9429,50 +10109,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>652</v>
+        <v>750</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>21027</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>178546</v>
+      </c>
+      <c r="C103" t="s">
+        <v>752</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>654</v>
+        <v>753</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>655</v>
+        <v>754</v>
       </c>
       <c r="J103" t="s">
-        <v>656</v>
+        <v>755</v>
       </c>
       <c r="K103" t="s">
-        <v>657</v>
+        <v>756</v>
       </c>
       <c r="L103" t="s">
-        <v>658</v>
+        <v>757</v>
       </c>
       <c r="M103" t="n">
         <v>3</v>
       </c>
       <c r="N103" t="s">
-        <v>647</v>
+        <v>744</v>
       </c>
       <c r="O103" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9492,50 +10176,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>658</v>
+        <v>757</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>21027</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>178547</v>
+      </c>
+      <c r="C104" t="s">
+        <v>758</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>659</v>
+        <v>759</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>660</v>
+        <v>760</v>
       </c>
       <c r="J104" t="s">
-        <v>661</v>
+        <v>761</v>
       </c>
       <c r="K104" t="s">
-        <v>662</v>
+        <v>762</v>
       </c>
       <c r="L104" t="s">
-        <v>663</v>
+        <v>763</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>664</v>
+        <v>764</v>
       </c>
       <c r="O104" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9559,50 +10247,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>665</v>
+        <v>765</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>21027</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>178548</v>
+      </c>
+      <c r="C105" t="s">
+        <v>766</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>666</v>
+        <v>767</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>667</v>
+        <v>768</v>
       </c>
       <c r="J105" t="s">
-        <v>668</v>
+        <v>769</v>
       </c>
       <c r="K105" t="s">
-        <v>669</v>
+        <v>770</v>
       </c>
       <c r="L105" t="s">
-        <v>670</v>
+        <v>771</v>
       </c>
       <c r="M105" t="n">
         <v>3</v>
       </c>
       <c r="N105" t="s">
-        <v>671</v>
+        <v>772</v>
       </c>
       <c r="O105" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9626,50 +10318,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>670</v>
+        <v>771</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>21027</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>72278</v>
+      </c>
+      <c r="C106" t="s">
+        <v>773</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>672</v>
+        <v>774</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>673</v>
+        <v>775</v>
       </c>
       <c r="J106" t="s">
-        <v>674</v>
+        <v>776</v>
       </c>
       <c r="K106" t="s">
-        <v>675</v>
+        <v>777</v>
       </c>
       <c r="L106" t="s">
-        <v>676</v>
+        <v>778</v>
       </c>
       <c r="M106" t="n">
         <v>5</v>
       </c>
       <c r="N106" t="s">
-        <v>677</v>
+        <v>779</v>
       </c>
       <c r="O106" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P106" t="n">
         <v>5</v>
@@ -9691,13 +10387,13 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>678</v>
+        <v>780</v>
       </c>
       <c r="X106" t="s">
-        <v>679</v>
+        <v>781</v>
       </c>
       <c r="Y106" t="s">
-        <v>680</v>
+        <v>782</v>
       </c>
     </row>
   </sheetData>
